--- a/AAII_Financials/Quarterly/LQDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LQDT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>LQDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E8" s="3">
         <v>49500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>58800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>56900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>56800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>54100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>52700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>50600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>60100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>61100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>61400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>65500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>72300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>70800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E9" s="3">
         <v>24200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>27300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>25300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>24800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>25000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>24200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>19500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>28700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>27600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>29000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>30400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>34600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>32300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E10" s="3">
         <v>25300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>31500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>31600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>32000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>29100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>28500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>31100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>31400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>35100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>37700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>38500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,31 +1005,34 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>900</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>2400</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1020,12 +1040,12 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1033,10 +1053,13 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1044,10 +1067,10 @@
         <v>1600</v>
       </c>
       <c r="E15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F15" s="3">
         <v>1500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1200</v>
       </c>
       <c r="G15" s="3">
         <v>1200</v>
@@ -1059,19 +1082,19 @@
         <v>1200</v>
       </c>
       <c r="J15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K15" s="3">
         <v>1000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1600</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1400</v>
       </c>
       <c r="O15" s="3">
         <v>1400</v>
@@ -1080,10 +1103,13 @@
         <v>1400</v>
       </c>
       <c r="Q15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R15" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E17" s="3">
         <v>54500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>64200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>61400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>61300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>59100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>59300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>53700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>65700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>67600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>75900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>74300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>80700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>79100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-4500</v>
       </c>
       <c r="G18" s="3">
         <v>-4500</v>
       </c>
       <c r="H18" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="I18" s="3">
         <v>-5000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-14500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,93 +1254,99 @@
         <v>300</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3600</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-2900</v>
       </c>
       <c r="G21" s="3">
         <v>-2900</v>
       </c>
       <c r="H21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I21" s="3">
         <v>-3600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-12900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-22700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,102 +1392,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8600</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-8300</v>
       </c>
       <c r="P23" s="3">
         <v>-8300</v>
       </c>
       <c r="Q23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="R23" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>300</v>
       </c>
       <c r="H24" s="3">
         <v>300</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>400</v>
       </c>
       <c r="L24" s="3">
         <v>400</v>
       </c>
       <c r="M24" s="3">
+        <v>400</v>
+      </c>
+      <c r="N24" s="3">
         <v>-500</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5200</v>
+        <v>-4200</v>
       </c>
       <c r="E26" s="3">
         <v>-5200</v>
       </c>
       <c r="F26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-4600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5200</v>
+        <v>-4200</v>
       </c>
       <c r="E27" s="3">
         <v>-5200</v>
       </c>
       <c r="F27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-4600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1654,20 +1715,20 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>5500</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>5200</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,93 +1854,99 @@
         <v>-300</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5200</v>
+        <v>-4200</v>
       </c>
       <c r="E33" s="3">
         <v>-5200</v>
       </c>
       <c r="F33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-4600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5200</v>
+        <v>-4200</v>
       </c>
       <c r="E35" s="3">
         <v>-5200</v>
       </c>
       <c r="F35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-4600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,63 +2139,67 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E41" s="3">
         <v>24200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>36400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>38500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>58400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>83400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>99700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>96800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>94300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>113900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>116100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>126900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>134500</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E42" s="3">
         <v>25000</v>
-      </c>
-      <c r="E42" s="3">
-        <v>30000</v>
       </c>
       <c r="F42" s="3">
         <v>30000</v>
@@ -2121,13 +2211,13 @@
         <v>30000</v>
       </c>
       <c r="I42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J42" s="3">
         <v>20000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>10000</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
@@ -2147,196 +2237,211 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E43" s="3">
         <v>8600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7400</v>
-      </c>
-      <c r="M43" s="3">
-        <v>12000</v>
       </c>
       <c r="N43" s="3">
         <v>12000</v>
       </c>
       <c r="O43" s="3">
+        <v>12000</v>
+      </c>
+      <c r="P43" s="3">
         <v>13400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>11900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5800</v>
+        <v>8500</v>
       </c>
       <c r="E44" s="3">
         <v>5800</v>
       </c>
       <c r="F44" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G44" s="3">
         <v>8900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>13100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>10500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>10100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>12800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>17100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>20700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>18900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>22500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>26700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E45" s="3">
         <v>7000</v>
-      </c>
-      <c r="E45" s="3">
-        <v>8100</v>
       </c>
       <c r="F45" s="3">
         <v>8100</v>
       </c>
       <c r="G45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H45" s="3">
         <v>7900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7800</v>
-      </c>
-      <c r="J45" s="3">
-        <v>9100</v>
       </c>
       <c r="K45" s="3">
         <v>9100</v>
       </c>
       <c r="L45" s="3">
+        <v>9100</v>
+      </c>
+      <c r="M45" s="3">
         <v>7400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E46" s="3">
         <v>70500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>89900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>90800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>93500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>93600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>103000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>121200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>125000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>128700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>138900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>154700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>164200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>177100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>184900</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,102 +2487,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E48" s="3">
         <v>30400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>18800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>17900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>17300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>65500</v>
+        <v>64900</v>
       </c>
       <c r="E49" s="3">
         <v>65500</v>
       </c>
       <c r="F49" s="3">
+        <v>65500</v>
+      </c>
+      <c r="G49" s="3">
         <v>66100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>66400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>66800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>67200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>45700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>46100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>45900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>45800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>46600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>46800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>47100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E52" s="3">
         <v>12800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13600</v>
-      </c>
-      <c r="O52" s="3">
-        <v>12900</v>
       </c>
       <c r="P52" s="3">
         <v>12900</v>
       </c>
       <c r="Q52" s="3">
+        <v>12900</v>
+      </c>
+      <c r="R52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>182100</v>
+      </c>
+      <c r="E54" s="3">
         <v>179200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>187300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>190700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>193100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>192900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>201800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>197400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>200100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>204800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>215200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>231600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>240000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>252700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>260100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,55 +2879,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E57" s="3">
         <v>30600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>37000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>40000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>37900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>39100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>45000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>47400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>46100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>39300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>40600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>45600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>45200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>42800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>40400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,102 +2977,111 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E59" s="3">
         <v>26600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>31800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>27600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>25900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>26500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>30200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>31700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>34200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>43100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>45100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E60" s="3">
         <v>57300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>68800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>67500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>63800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>62800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>68500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>65600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>65300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>65700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>70800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>77400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>79400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>85800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>85500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,55 +3127,61 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E62" s="3">
         <v>9500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E66" s="3">
         <v>66800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>71100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>69600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>68600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>66400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>72200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>72100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>72000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>72300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>82600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>88000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>90300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>96900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-123800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-118600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-113300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-108700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-104300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-100000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-98800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-95300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-89700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-88200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-74300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-65600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-57400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>108100</v>
+      </c>
+      <c r="E76" s="3">
         <v>112400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>116200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>121100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>124500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>126500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>129700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>125300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>128100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>132500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>132600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>143600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>149800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>155800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5200</v>
+        <v>-4200</v>
       </c>
       <c r="E81" s="3">
         <v>-5200</v>
       </c>
       <c r="F81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-4600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3835,10 +4034,10 @@
         <v>1600</v>
       </c>
       <c r="E83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F83" s="3">
         <v>1500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1200</v>
       </c>
       <c r="G83" s="3">
         <v>1200</v>
@@ -3850,19 +4049,19 @@
         <v>1200</v>
       </c>
       <c r="J83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1600</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1400</v>
       </c>
       <c r="O83" s="3">
         <v>1400</v>
@@ -3871,10 +4070,13 @@
         <v>1400</v>
       </c>
       <c r="Q83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-18600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-17400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E94" s="3">
         <v>6200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-25200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11000</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,32 +4812,35 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4602,11 +4848,11 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -4614,100 +4860,109 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-19900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-25000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-16300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-19600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LQDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LQDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>LQDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E8" s="3">
         <v>52800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>49500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>58800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>56900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>56800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>54100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>52700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>50600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>60100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>61100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>61400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>65500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>72300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>70800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E9" s="3">
         <v>26600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>24200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>27300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>25300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>24800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>25000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>24200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>28700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>27600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>29000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>30400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>34600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>32300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E10" s="3">
         <v>26200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>31500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>31600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>32000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>29100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>28500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>31100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>31400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>33500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>32400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>35100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>37700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>38500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,34 +1025,37 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2400</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1043,12 +1063,12 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1056,10 +1076,13 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1070,10 +1093,10 @@
         <v>1600</v>
       </c>
       <c r="F15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G15" s="3">
         <v>1500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1200</v>
       </c>
       <c r="H15" s="3">
         <v>1200</v>
@@ -1085,19 +1108,19 @@
         <v>1200</v>
       </c>
       <c r="K15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L15" s="3">
         <v>1000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1600</v>
-      </c>
-      <c r="O15" s="3">
-        <v>1400</v>
       </c>
       <c r="P15" s="3">
         <v>1400</v>
@@ -1106,10 +1129,13 @@
         <v>1400</v>
       </c>
       <c r="R15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S15" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E17" s="3">
         <v>57300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>54500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>64200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>61400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>61300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>59100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>59300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>53700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>65700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>67600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>75900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>74300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>80700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>79100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-4500</v>
       </c>
       <c r="H18" s="3">
         <v>-4500</v>
       </c>
       <c r="I18" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-5000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-14500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
       </c>
       <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-2900</v>
       </c>
       <c r="H21" s="3">
         <v>-2900</v>
       </c>
       <c r="I21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J21" s="3">
         <v>-3600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-12900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-6800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-22700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-14500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8600</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-8300</v>
       </c>
       <c r="Q23" s="3">
         <v>-8300</v>
       </c>
       <c r="R23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="S23" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
-      </c>
-      <c r="H24" s="3">
-        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>400</v>
       </c>
       <c r="M24" s="3">
         <v>400</v>
       </c>
       <c r="N24" s="3">
+        <v>400</v>
+      </c>
+      <c r="O24" s="3">
         <v>-500</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4200</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-5200</v>
       </c>
       <c r="F26" s="3">
         <v>-5200</v>
       </c>
       <c r="G26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-4600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4200</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-5200</v>
       </c>
       <c r="F27" s="3">
         <v>-5200</v>
       </c>
       <c r="G27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-4600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1718,20 +1779,20 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>5500</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>5200</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
       </c>
       <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4200</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-5200</v>
       </c>
       <c r="F33" s="3">
         <v>-5200</v>
       </c>
       <c r="G33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-4600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4200</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-5200</v>
       </c>
       <c r="F35" s="3">
         <v>-5200</v>
       </c>
       <c r="G35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-4600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,69 +2226,73 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E41" s="3">
         <v>41800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>36500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>36400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>33900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>38500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>58400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>83400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>99700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>96800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>94300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>113900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>116100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>126900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>134500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>10000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>25000</v>
-      </c>
-      <c r="F42" s="3">
-        <v>30000</v>
       </c>
       <c r="G42" s="3">
         <v>30000</v>
@@ -2214,13 +2304,13 @@
         <v>30000</v>
       </c>
       <c r="J42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K42" s="3">
         <v>20000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10000</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
@@ -2240,208 +2330,223 @@
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E43" s="3">
         <v>9700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7400</v>
-      </c>
-      <c r="N43" s="3">
-        <v>12000</v>
       </c>
       <c r="O43" s="3">
         <v>12000</v>
       </c>
       <c r="P43" s="3">
+        <v>12000</v>
+      </c>
+      <c r="Q43" s="3">
         <v>13400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>11900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E44" s="3">
         <v>8500</v>
-      </c>
-      <c r="E44" s="3">
-        <v>5800</v>
       </c>
       <c r="F44" s="3">
         <v>5800</v>
       </c>
       <c r="G44" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H44" s="3">
         <v>8900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>13100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>10500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>10100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>17100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>20700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>18900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>22500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>26700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>8100</v>
       </c>
       <c r="G45" s="3">
         <v>8100</v>
       </c>
       <c r="H45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I45" s="3">
         <v>7900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7800</v>
-      </c>
-      <c r="K45" s="3">
-        <v>9100</v>
       </c>
       <c r="L45" s="3">
         <v>9100</v>
       </c>
       <c r="M45" s="3">
+        <v>9100</v>
+      </c>
+      <c r="N45" s="3">
         <v>7400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>94900</v>
+      </c>
+      <c r="E46" s="3">
         <v>75800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>70500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>89900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>90800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>93500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>93600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>103000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>121200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>125000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>128700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>138900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>154700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>164200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>177100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>184900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E48" s="3">
         <v>29400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>30400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>18600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>17900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>17300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E49" s="3">
         <v>64900</v>
-      </c>
-      <c r="E49" s="3">
-        <v>65500</v>
       </c>
       <c r="F49" s="3">
         <v>65500</v>
       </c>
       <c r="G49" s="3">
+        <v>65500</v>
+      </c>
+      <c r="H49" s="3">
         <v>66100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>66400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>66800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>67200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>45700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>46100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>45900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>45800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>46600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>46800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>47100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E52" s="3">
         <v>11900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13600</v>
-      </c>
-      <c r="P52" s="3">
-        <v>12900</v>
       </c>
       <c r="Q52" s="3">
         <v>12900</v>
       </c>
       <c r="R52" s="3">
+        <v>12900</v>
+      </c>
+      <c r="S52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>198900</v>
+      </c>
+      <c r="E54" s="3">
         <v>182100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>179200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>187300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>190700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>193100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>192900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>201800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>197400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>200100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>204800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>215200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>231600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>240000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>252700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>260100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E57" s="3">
         <v>40500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>30600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>37000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>40000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>37900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>39100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>45000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>47400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>46100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>39300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>40600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>45600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>45200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>42800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>40400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,108 +3114,117 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E59" s="3">
         <v>24800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>26600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>31800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>27600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>25900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>26500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>30200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>31700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>34200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>43100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>45100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E60" s="3">
         <v>65300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>57300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>68800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>67500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>63800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>62800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>68500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>65600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>65300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>65700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>70800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>77400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>79400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>85800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>85500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,58 +3273,64 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E62" s="3">
         <v>8600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>88600</v>
+      </c>
+      <c r="E66" s="3">
         <v>74000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>66800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>71100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>69600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>68600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>66400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>72200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>72100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>72000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>72300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>82600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>88000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>90300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>96900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-127800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-128000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-123800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-118600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-113300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-108700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-104300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-100000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-98800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-95300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-89700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-88200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-74300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-65600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-57400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>110200</v>
+      </c>
+      <c r="E76" s="3">
         <v>108100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>112400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>116200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>121100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>124500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>126500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>129700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>125300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>128100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>132500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>132600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>143600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>149800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>155800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4200</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-5200</v>
       </c>
       <c r="F81" s="3">
         <v>-5200</v>
       </c>
       <c r="G81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-4600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4037,10 +4236,10 @@
         <v>1600</v>
       </c>
       <c r="F83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G83" s="3">
         <v>1500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1200</v>
       </c>
       <c r="H83" s="3">
         <v>1200</v>
@@ -4052,19 +4251,19 @@
         <v>1200</v>
       </c>
       <c r="K83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>1400</v>
       </c>
       <c r="P83" s="3">
         <v>1400</v>
@@ -4073,10 +4272,13 @@
         <v>1400</v>
       </c>
       <c r="R83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E89" s="3">
         <v>6500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-18600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-17400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E94" s="3">
         <v>13500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>6200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-25200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11000</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,35 +5058,38 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4851,11 +5097,11 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -4863,106 +5109,115 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E102" s="3">
         <v>17600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-19900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-25000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-16300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-19600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LQDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LQDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>LQDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,269 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>55900</v>
+      </c>
+      <c r="F8" s="3">
         <v>47700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>52800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>49500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>58800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>56900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>56800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>54100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>52700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>50600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>60100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>61100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>61400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>65500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>72300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>70800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F9" s="3">
         <v>22500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>26600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>24200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>27300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>25300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>24800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>25000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>24200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>19500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>28700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>27600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>29000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>30400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>34600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>32300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>33200</v>
+      </c>
+      <c r="F10" s="3">
         <v>25200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>26200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>25300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>31500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>31600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>32000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>29100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>28500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>31100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>31400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>33500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>32400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>35100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>37700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>38500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +947,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,66 +1061,78 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>2400</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="E15" s="3">
         <v>1600</v>
@@ -1096,13 +1141,13 @@
         <v>1600</v>
       </c>
       <c r="G15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I15" s="3">
         <v>1500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1200</v>
       </c>
       <c r="J15" s="3">
         <v>1200</v>
@@ -1111,31 +1156,37 @@
         <v>1200</v>
       </c>
       <c r="L15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N15" s="3">
         <v>1000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>1100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>1200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>1600</v>
-      </c>
-      <c r="P15" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>1400</v>
       </c>
       <c r="R15" s="3">
         <v>1400</v>
       </c>
       <c r="S15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U15" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1203,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>50500</v>
+      </c>
+      <c r="F17" s="3">
         <v>47500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>57300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>54500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>64200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>61400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>61300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>59100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>59300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>53700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>65700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>67600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>75900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>74300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>80700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>79100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-4500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-5000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-5400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-4500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-6600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-5600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-6500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-14500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-8400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-8300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1344,128 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F21" s="3">
         <v>2000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-5300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-4100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-4800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-12900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-6900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-6800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-22700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1517,132 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-5200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-6500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-5300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-6000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-14500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-8300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-8300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>500</v>
-      </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>500</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>500</v>
+      </c>
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-500</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-5200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-5200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-6500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-5700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-6400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-14000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-8300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-8400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-5200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-5200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-6500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-5700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-6400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-14000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-8300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-8400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1782,23 +1903,23 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>5500</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>5200</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2048,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-5200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-5200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-5700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-14000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-8300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-8400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-5200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-5200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-5700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-14000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-8300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-8400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,78 +2398,86 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>76000</v>
+      </c>
+      <c r="F41" s="3">
         <v>72700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>41800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>24200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>36500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>36400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>33900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>38500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>58400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>83400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>99700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>96800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>94300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>113900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>116100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>126900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>134500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>10000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>25000</v>
-      </c>
-      <c r="G42" s="3">
-        <v>30000</v>
-      </c>
-      <c r="H42" s="3">
-        <v>30000</v>
       </c>
       <c r="I42" s="3">
         <v>30000</v>
@@ -2307,16 +2486,16 @@
         <v>30000</v>
       </c>
       <c r="K42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="L42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="M42" s="3">
         <v>20000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>10000</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
@@ -2333,220 +2512,250 @@
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F43" s="3">
         <v>8700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>9700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>8600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>9500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>7400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>8600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>7600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>6600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>5900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>6100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>7400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>12000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>12000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>13400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>11900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F44" s="3">
         <v>7400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>8500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>5800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>5800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>8900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>13100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>10500</v>
-      </c>
-      <c r="K44" s="3">
-        <v>10100</v>
-      </c>
-      <c r="L44" s="3">
-        <v>12800</v>
       </c>
       <c r="M44" s="3">
         <v>10100</v>
       </c>
       <c r="N44" s="3">
+        <v>12800</v>
+      </c>
+      <c r="O44" s="3">
+        <v>10100</v>
+      </c>
+      <c r="P44" s="3">
         <v>17100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>20700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>18900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>22500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>26700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F45" s="3">
         <v>6000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>7000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>8100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>8100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>7900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>7000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>7800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>9100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>9100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>7400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>11900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>9900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>12200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>11600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>94600</v>
+      </c>
+      <c r="F46" s="3">
         <v>94900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>75800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>70500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>89900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>90800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>93500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>93600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>103000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>121200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>125000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>128700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>138900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>154700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>164200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>177100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>184900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2807,132 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>28400</v>
+      </c>
+      <c r="F48" s="3">
         <v>27800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>29400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>30400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>18800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>18600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>17900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>17300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>16600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>16000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>15900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>16500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>16800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>16700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>16100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>15600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>64600</v>
+      </c>
+      <c r="F49" s="3">
         <v>64700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>64900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>65500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>65500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>66100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>66400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>66800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>67200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>45700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>46100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>45900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>45800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>46600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>46800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>47100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3043,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F52" s="3">
         <v>11500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>11900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>12800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>13000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>15200</v>
-      </c>
-      <c r="I52" s="3">
-        <v>15300</v>
       </c>
       <c r="J52" s="3">
         <v>15200</v>
       </c>
       <c r="K52" s="3">
+        <v>15300</v>
+      </c>
+      <c r="L52" s="3">
+        <v>15200</v>
+      </c>
+      <c r="M52" s="3">
         <v>15100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>14600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>13200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>13800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>13700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>13600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>12900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>12900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3161,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>205300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>196600</v>
+      </c>
+      <c r="F54" s="3">
         <v>198900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>182100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>179200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>187300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>190700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>193100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>192900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>201800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>197400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>200100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>204800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>215200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>231600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>240000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>252700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>260100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3270,69 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>48100</v>
+      </c>
+      <c r="F57" s="3">
         <v>55300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>40500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>30600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>37000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>40000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>37900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>39100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>45000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>47400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>46100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>39300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>40600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>45600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>45200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>42800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>40400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,114 +3384,132 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F59" s="3">
         <v>24900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>24800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>26600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>31800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>27600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>25900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>23700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>23500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>18200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>19200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>26500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>30200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>31700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>34200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>43100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>45100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>77300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>74300</v>
+      </c>
+      <c r="F60" s="3">
         <v>80200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>65300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>57300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>68800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>67500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>63800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>62800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>68500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>65600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>65300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>65700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>70800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>77400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>79400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>85800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>85500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,61 +3561,73 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F62" s="3">
         <v>8400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>8600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>9500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>4800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>6500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>6700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>6600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>11800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>10600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>10900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>11100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>84800</v>
+      </c>
+      <c r="F66" s="3">
         <v>88600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>74000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>66800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>71100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>69600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>68600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>66400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>72200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>72100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>72000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>72300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>82600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>88000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>90300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>96900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-117800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-122300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-127800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-128000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-123800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-118600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-113300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-108700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-104300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-100000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-98800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-95300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-89700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-88200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-74300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-65600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-57400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>115100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>111800</v>
+      </c>
+      <c r="F76" s="3">
         <v>110200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>108100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>112400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>116200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>121100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>124500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>126500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>129700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>125300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>128100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>132500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>132600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>143600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>149800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>155800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-5200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-5200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-5700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-14000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-8300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-8400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,13 +4619,15 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="E83" s="3">
         <v>1600</v>
@@ -4239,13 +4636,13 @@
         <v>1600</v>
       </c>
       <c r="G83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I83" s="3">
         <v>1500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1200</v>
       </c>
       <c r="J83" s="3">
         <v>1200</v>
@@ -4254,31 +4651,37 @@
         <v>1200</v>
       </c>
       <c r="L83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N83" s="3">
         <v>1000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>1200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1600</v>
-      </c>
-      <c r="P83" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>1400</v>
       </c>
       <c r="R83" s="3">
         <v>1400</v>
       </c>
       <c r="S83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4969,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F89" s="3">
         <v>21300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>6500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-18600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>4400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-8100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>3500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-17400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-9300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-5000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5055,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1600</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-1700</v>
       </c>
       <c r="R91" s="3">
         <v>-2300</v>
       </c>
       <c r="S91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="U91" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5228,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
         <v>9200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>13500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>6200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-11600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-25200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-11000</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1600</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-1700</v>
       </c>
       <c r="R94" s="3">
         <v>-2300</v>
       </c>
       <c r="S94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="T94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="U94" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5546,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-4000</v>
       </c>
       <c r="E100" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>300</v>
+      </c>
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F102" s="3">
         <v>30900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>17600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-12300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-4600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-19900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-25000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-16300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>2900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-19600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-10800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-7600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LQDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LQDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>LQDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E8" s="3">
         <v>55800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>55900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>47700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>52800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>49500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>58800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>56900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>56800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>54100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>52700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>50600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>60100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>61100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>61400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>65500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>72300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>70800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E9" s="3">
         <v>22600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>22700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>22500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>26600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>24200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>27300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>25300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>24800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>25000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>24200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>28700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>27600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>29000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>30400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>34600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>32300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>33200</v>
+        <v>35400</v>
       </c>
       <c r="E10" s="3">
         <v>33200</v>
       </c>
       <c r="F10" s="3">
+        <v>33200</v>
+      </c>
+      <c r="G10" s="3">
         <v>25200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>26200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>25300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>31500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>31600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>32000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>29100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>28500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>31100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>31400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>33500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>32400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>35100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>37700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>38500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1076,34 +1096,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2400</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1111,12 +1131,12 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1124,18 +1144,21 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E15" s="3">
         <v>1900</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1600</v>
       </c>
       <c r="F15" s="3">
         <v>1600</v>
@@ -1147,10 +1170,10 @@
         <v>1600</v>
       </c>
       <c r="I15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J15" s="3">
         <v>1500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1200</v>
       </c>
       <c r="K15" s="3">
         <v>1200</v>
@@ -1162,19 +1185,19 @@
         <v>1200</v>
       </c>
       <c r="N15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O15" s="3">
         <v>1000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1600</v>
-      </c>
-      <c r="R15" s="3">
-        <v>1400</v>
       </c>
       <c r="S15" s="3">
         <v>1400</v>
@@ -1183,10 +1206,13 @@
         <v>1400</v>
       </c>
       <c r="U15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V15" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E17" s="3">
         <v>51100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>50500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>47500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>57300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>54500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>64200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>61400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>61300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>59100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>59300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>53700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>65700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>67600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>75900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>74300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>80700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>79100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E18" s="3">
         <v>4700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-4500</v>
       </c>
       <c r="K18" s="3">
         <v>-4500</v>
       </c>
       <c r="L18" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="M18" s="3">
         <v>-5000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-14500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-8300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
       </c>
       <c r="G20" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H20" s="3">
         <v>300</v>
       </c>
       <c r="I20" s="3">
+        <v>300</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E21" s="3">
         <v>6700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-2900</v>
       </c>
       <c r="K21" s="3">
         <v>-2900</v>
       </c>
       <c r="L21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="M21" s="3">
         <v>-3600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-12900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-6900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-6800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-22700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E23" s="3">
         <v>4800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-14500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8600</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-8300</v>
       </c>
       <c r="T23" s="3">
         <v>-8300</v>
       </c>
       <c r="U23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="V23" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>300</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>600</v>
-      </c>
-      <c r="O24" s="3">
-        <v>400</v>
       </c>
       <c r="P24" s="3">
         <v>400</v>
       </c>
       <c r="Q24" s="3">
+        <v>400</v>
+      </c>
+      <c r="R24" s="3">
         <v>-500</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E26" s="3">
         <v>4500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-5200</v>
       </c>
       <c r="I26" s="3">
         <v>-5200</v>
       </c>
       <c r="J26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-14000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-8400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E27" s="3">
         <v>4500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-5200</v>
       </c>
       <c r="I27" s="3">
         <v>-5200</v>
       </c>
       <c r="J27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-14000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1909,20 +1970,20 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>5500</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>5200</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
       </c>
       <c r="G32" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="H32" s="3">
         <v>-300</v>
       </c>
       <c r="I32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E33" s="3">
         <v>4500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-5200</v>
       </c>
       <c r="I33" s="3">
         <v>-5200</v>
       </c>
       <c r="J33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-14000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E35" s="3">
         <v>4500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-5200</v>
       </c>
       <c r="I35" s="3">
         <v>-5200</v>
       </c>
       <c r="J35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-14000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,87 +2486,91 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>87600</v>
+      </c>
+      <c r="E41" s="3">
         <v>77800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>76000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>72700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>41800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>36500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>36400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>33900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>38500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>58400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>83400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>99700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>96800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>94300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>113900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>116100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>126900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>134500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>10000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>25000</v>
-      </c>
-      <c r="I42" s="3">
-        <v>30000</v>
       </c>
       <c r="J42" s="3">
         <v>30000</v>
@@ -2492,13 +2582,13 @@
         <v>30000</v>
       </c>
       <c r="M42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="N42" s="3">
         <v>20000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>10000</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
@@ -2518,126 +2608,135 @@
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E43" s="3">
         <v>5200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7400</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>12000</v>
       </c>
       <c r="R43" s="3">
         <v>12000</v>
       </c>
       <c r="S43" s="3">
+        <v>12000</v>
+      </c>
+      <c r="T43" s="3">
         <v>13400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>11900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E44" s="3">
         <v>9900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>7400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8500</v>
-      </c>
-      <c r="H44" s="3">
-        <v>5800</v>
       </c>
       <c r="I44" s="3">
         <v>5800</v>
       </c>
       <c r="J44" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K44" s="3">
         <v>8900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>10100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>17100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>20700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>18900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>22500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>26700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2645,117 +2744,123 @@
         <v>7900</v>
       </c>
       <c r="E45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F45" s="3">
         <v>5600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>8100</v>
       </c>
       <c r="J45" s="3">
         <v>8100</v>
       </c>
       <c r="K45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="L45" s="3">
         <v>7900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7800</v>
-      </c>
-      <c r="N45" s="3">
-        <v>9100</v>
       </c>
       <c r="O45" s="3">
         <v>9100</v>
       </c>
       <c r="P45" s="3">
+        <v>9100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>7400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>11600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>114900</v>
+      </c>
+      <c r="E46" s="3">
         <v>100900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>94600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>94900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>75800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>70500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>89900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>90800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>93500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>93600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>103000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>121200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>125000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>128700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>138900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>154700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>164200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>177100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>184900</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,126 +2918,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E48" s="3">
         <v>31000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>28400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>30400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>18800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>18600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>15600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>64600</v>
+        <v>64100</v>
       </c>
       <c r="E49" s="3">
         <v>64600</v>
       </c>
       <c r="F49" s="3">
+        <v>64600</v>
+      </c>
+      <c r="G49" s="3">
         <v>64700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>64900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>65500</v>
       </c>
       <c r="I49" s="3">
         <v>65500</v>
       </c>
       <c r="J49" s="3">
+        <v>65500</v>
+      </c>
+      <c r="K49" s="3">
         <v>66100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>66400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>66800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>67200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>45700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>46100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>45900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>45800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>46600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>46800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>47100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E52" s="3">
         <v>8900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>13700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>13600</v>
-      </c>
-      <c r="S52" s="3">
-        <v>12900</v>
       </c>
       <c r="T52" s="3">
         <v>12900</v>
       </c>
       <c r="U52" s="3">
+        <v>12900</v>
+      </c>
+      <c r="V52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>217600</v>
+      </c>
+      <c r="E54" s="3">
         <v>205300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>196600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>198900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>182100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>179200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>187300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>190700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>193100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>192900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>201800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>197400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>200100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>204800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>215200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>231600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>240000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>252700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>260100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E57" s="3">
         <v>52500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>48100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>55300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>40500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>30600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>37000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>40000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>37900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>39100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>45000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>47400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>46100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>39300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>40600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>45600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>45200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>42800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>40400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,126 +3524,135 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E59" s="3">
         <v>24800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>26200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>26600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>31800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>27600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>25900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>26500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>30200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>31700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>34200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>43100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>45100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>98400</v>
+      </c>
+      <c r="E60" s="3">
         <v>77300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>74300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>80200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>65300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>57300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>68800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>67500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>63800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>62800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>68500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>65600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>65300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>65700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>70800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>77400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>79400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>85800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>85500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,67 +3710,73 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E62" s="3">
         <v>12900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>110600</v>
+      </c>
+      <c r="E66" s="3">
         <v>90200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>84800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>88600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>74000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>66800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>71100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>69600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>68600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>66400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>72200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>72100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>72000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>72300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>82600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>88000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>90300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>96900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-112600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-117800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-122300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-127800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-128000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-123800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-118600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-113300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-108700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-104300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-100000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-98800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-95300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-89700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-88200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-74300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-65600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-57400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>106900</v>
+      </c>
+      <c r="E76" s="3">
         <v>115100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>111800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>110200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>108100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>112400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>116200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>121100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>124500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>126500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>129700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>125300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>128100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>132500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>132600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>143600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>149800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>155800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E81" s="3">
         <v>4500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-5200</v>
       </c>
       <c r="I81" s="3">
         <v>-5200</v>
       </c>
       <c r="J81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-14000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,16 +4819,17 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E83" s="3">
         <v>1900</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1600</v>
       </c>
       <c r="F83" s="3">
         <v>1600</v>
@@ -4642,10 +4841,10 @@
         <v>1600</v>
       </c>
       <c r="I83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J83" s="3">
         <v>1500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1200</v>
       </c>
       <c r="K83" s="3">
         <v>1200</v>
@@ -4657,19 +4856,19 @@
         <v>1200</v>
       </c>
       <c r="N83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O83" s="3">
         <v>1000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1600</v>
-      </c>
-      <c r="R83" s="3">
-        <v>1400</v>
       </c>
       <c r="S83" s="3">
         <v>1400</v>
@@ -4678,10 +4877,13 @@
         <v>1400</v>
       </c>
       <c r="U83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E89" s="3">
         <v>6000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>21300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-18600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-17400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-9300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>9200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>13500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>6200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-25200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11000</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,44 +5795,47 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3900</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5597,11 +5843,11 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-1200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -5609,124 +5855,133 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E102" s="3">
         <v>1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>30900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>17600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-12300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-19900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-25000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-16300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-19600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-7600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LQDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LQDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>LQDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E8" s="3">
         <v>61800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>55800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>55900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>47700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>52800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>49500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>58800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>56900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>56800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>54100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>52700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>50600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>60100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>61100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>61400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>65500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>72300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>70800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E9" s="3">
         <v>26400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>22600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>22700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>22500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>26600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>24200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>27300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>25300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>24800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>25000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>24200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>28700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>27600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>29000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>30400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>34600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>32300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E10" s="3">
         <v>35400</v>
-      </c>
-      <c r="E10" s="3">
-        <v>33200</v>
       </c>
       <c r="F10" s="3">
         <v>33200</v>
       </c>
       <c r="G10" s="3">
+        <v>33200</v>
+      </c>
+      <c r="H10" s="3">
         <v>25200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>26200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>25300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>31500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>31600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>32000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>28500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>31100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>31400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>33500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>32400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>35100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>37700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>38500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1099,34 +1119,34 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2400</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1134,12 +1154,12 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1147,10 +1167,13 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,10 +1181,10 @@
         <v>1700</v>
       </c>
       <c r="E15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F15" s="3">
         <v>1900</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1600</v>
       </c>
       <c r="G15" s="3">
         <v>1600</v>
@@ -1173,10 +1196,10 @@
         <v>1600</v>
       </c>
       <c r="J15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K15" s="3">
         <v>1500</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1200</v>
       </c>
       <c r="L15" s="3">
         <v>1200</v>
@@ -1188,19 +1211,19 @@
         <v>1200</v>
       </c>
       <c r="O15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P15" s="3">
         <v>1000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1600</v>
-      </c>
-      <c r="S15" s="3">
-        <v>1400</v>
       </c>
       <c r="T15" s="3">
         <v>1400</v>
@@ -1209,10 +1232,13 @@
         <v>1400</v>
       </c>
       <c r="V15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W15" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E17" s="3">
         <v>56100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>51100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>50500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>47500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>57300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>54500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>64200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>61400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>61300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>59100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>59300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>53700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>65700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>67600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>75900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>74300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>80700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>79100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E18" s="3">
         <v>5700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-4500</v>
       </c>
       <c r="L18" s="3">
         <v>-4500</v>
       </c>
       <c r="M18" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="N18" s="3">
         <v>-5000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-14500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-8400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-8300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
       </c>
       <c r="H20" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I20" s="3">
         <v>300</v>
       </c>
       <c r="J20" s="3">
+        <v>300</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E21" s="3">
         <v>7300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3600</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-2900</v>
       </c>
       <c r="L21" s="3">
         <v>-2900</v>
       </c>
       <c r="M21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="N21" s="3">
         <v>-3600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-12900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-7200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-6900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-6800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-22700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E23" s="3">
         <v>5700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-14500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-8600</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-8300</v>
       </c>
       <c r="U23" s="3">
         <v>-8300</v>
       </c>
       <c r="V23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="W23" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1637,61 +1683,64 @@
         <v>400</v>
       </c>
       <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>300</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>600</v>
-      </c>
-      <c r="P24" s="3">
-        <v>400</v>
       </c>
       <c r="Q24" s="3">
         <v>400</v>
       </c>
       <c r="R24" s="3">
+        <v>400</v>
+      </c>
+      <c r="S24" s="3">
         <v>-500</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E26" s="3">
         <v>5300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-5200</v>
       </c>
       <c r="J26" s="3">
         <v>-5200</v>
       </c>
       <c r="K26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-4600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-14000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-8300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-8400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E27" s="3">
         <v>5300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-5200</v>
       </c>
       <c r="J27" s="3">
         <v>-5200</v>
       </c>
       <c r="K27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-4600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-14000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-8400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1973,20 +2034,20 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>5500</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>5200</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
       </c>
       <c r="H32" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I32" s="3">
         <v>-300</v>
       </c>
       <c r="J32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E33" s="3">
         <v>5300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-5200</v>
       </c>
       <c r="J33" s="3">
         <v>-5200</v>
       </c>
       <c r="K33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-4600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-14000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E35" s="3">
         <v>5300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-5200</v>
       </c>
       <c r="J35" s="3">
         <v>-5200</v>
       </c>
       <c r="K35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-4600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-14000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>112700</v>
+      </c>
+      <c r="E41" s="3">
         <v>87600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>77800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>76000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>72700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>41800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>36500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>36400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>33900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>38500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>58400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>83400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>99700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>96800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>94300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>113900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>116100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>126900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>134500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2560,20 +2650,20 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>10000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>25000</v>
-      </c>
-      <c r="J42" s="3">
-        <v>30000</v>
       </c>
       <c r="K42" s="3">
         <v>30000</v>
@@ -2585,13 +2675,13 @@
         <v>30000</v>
       </c>
       <c r="N42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="O42" s="3">
         <v>20000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>10000</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
@@ -2611,256 +2701,271 @@
       <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E43" s="3">
         <v>6200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7400</v>
-      </c>
-      <c r="R43" s="3">
-        <v>12000</v>
       </c>
       <c r="S43" s="3">
         <v>12000</v>
       </c>
       <c r="T43" s="3">
+        <v>12000</v>
+      </c>
+      <c r="U43" s="3">
         <v>13400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>11900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E44" s="3">
         <v>13100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>9900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>7400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8500</v>
-      </c>
-      <c r="I44" s="3">
-        <v>5800</v>
       </c>
       <c r="J44" s="3">
         <v>5800</v>
       </c>
       <c r="K44" s="3">
+        <v>5800</v>
+      </c>
+      <c r="L44" s="3">
         <v>8900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>10100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>10100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>17100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>20700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>18900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>22500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>26700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7900</v>
+        <v>7200</v>
       </c>
       <c r="E45" s="3">
         <v>7900</v>
       </c>
       <c r="F45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G45" s="3">
         <v>5600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>8100</v>
       </c>
       <c r="K45" s="3">
         <v>8100</v>
       </c>
       <c r="L45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="M45" s="3">
         <v>7900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7800</v>
-      </c>
-      <c r="O45" s="3">
-        <v>9100</v>
       </c>
       <c r="P45" s="3">
         <v>9100</v>
       </c>
       <c r="Q45" s="3">
+        <v>9100</v>
+      </c>
+      <c r="R45" s="3">
         <v>7400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>11600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>139500</v>
+      </c>
+      <c r="E46" s="3">
         <v>114900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>100900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>94600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>94900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>75800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>70500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>89900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>90800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>93500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>93600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>103000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>121200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>125000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>128700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>138900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>154700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>164200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>177100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>184900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,132 +3026,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E48" s="3">
         <v>29900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>28400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>27800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>30400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>18800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>15600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E49" s="3">
         <v>64100</v>
-      </c>
-      <c r="E49" s="3">
-        <v>64600</v>
       </c>
       <c r="F49" s="3">
         <v>64600</v>
       </c>
       <c r="G49" s="3">
+        <v>64600</v>
+      </c>
+      <c r="H49" s="3">
         <v>64700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>64900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>65500</v>
       </c>
       <c r="J49" s="3">
         <v>65500</v>
       </c>
       <c r="K49" s="3">
+        <v>65500</v>
+      </c>
+      <c r="L49" s="3">
         <v>66100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>66400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>66800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>67200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>45700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>46100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>45900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>45800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>46600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>46800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>47100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E52" s="3">
         <v>8600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>11900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>15100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>13800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>13700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>13600</v>
-      </c>
-      <c r="T52" s="3">
-        <v>12900</v>
       </c>
       <c r="U52" s="3">
         <v>12900</v>
       </c>
       <c r="V52" s="3">
+        <v>12900</v>
+      </c>
+      <c r="W52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>238400</v>
+      </c>
+      <c r="E54" s="3">
         <v>217600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>205300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>196600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>198900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>182100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>179200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>187300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>190700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>193100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>192900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>201800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>197400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>200100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>204800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>215200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>231600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>240000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>252700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>260100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>79200</v>
+      </c>
+      <c r="E57" s="3">
         <v>68500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>52500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>48100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>55300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>40500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>30600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>37000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>40000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>37900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>39100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>45000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>47400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>46100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>39300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>40600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>45600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>45200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>42800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>40400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,132 +3661,141 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E59" s="3">
         <v>30000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>26600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>31800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>27600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>25900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>26500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>30200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>31700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>34200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>43100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>45100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E60" s="3">
         <v>98400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>77300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>74300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>80200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>65300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>57300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>68800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>67500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>63800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>62800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>68500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>65600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>65300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>65700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>70800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>77400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>79400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>85800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>85500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,70 +3856,76 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E62" s="3">
         <v>12200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>10900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>11100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>121800</v>
+      </c>
+      <c r="E66" s="3">
         <v>110600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>90200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>84800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>88600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>74000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>66800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>71100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>69600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>68600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>66400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>72200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>72100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>72000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>72300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>82600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>88000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>90300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>96900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-104200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-112600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-117800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-122300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-127800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-128000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-123800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-118600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-113300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-108700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-104300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-100000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-98800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-95300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-89700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-88200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-74300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-65600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-57400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>116600</v>
+      </c>
+      <c r="E76" s="3">
         <v>106900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>115100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>111800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>110200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>108100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>112400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>116200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>121100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>124500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>126500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>129700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>125300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>128100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>132500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>132600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>143600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>149800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>155800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E81" s="3">
         <v>5300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-5200</v>
       </c>
       <c r="J81" s="3">
         <v>-5200</v>
       </c>
       <c r="K81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-4600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-14000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4829,10 +5028,10 @@
         <v>1700</v>
       </c>
       <c r="E83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F83" s="3">
         <v>1900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1600</v>
       </c>
       <c r="G83" s="3">
         <v>1600</v>
@@ -4844,10 +5043,10 @@
         <v>1600</v>
       </c>
       <c r="J83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K83" s="3">
         <v>1500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1200</v>
       </c>
       <c r="L83" s="3">
         <v>1200</v>
@@ -4859,19 +5058,19 @@
         <v>1200</v>
       </c>
       <c r="O83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P83" s="3">
         <v>1000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1600</v>
-      </c>
-      <c r="S83" s="3">
-        <v>1400</v>
       </c>
       <c r="T83" s="3">
         <v>1400</v>
@@ -4880,10 +5079,13 @@
         <v>1400</v>
       </c>
       <c r="V83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E89" s="3">
         <v>25300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>21300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-18600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-17400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-9300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-5000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5287,61 +5508,64 @@
         <v>-1100</v>
       </c>
       <c r="E91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>9200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>13500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>6200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-25200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11000</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-1000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,47 +6041,50 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-15000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3900</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5846,11 +6092,11 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-1200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -5858,130 +6104,139 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>600</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E102" s="3">
         <v>9800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>30900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-19900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-25000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-16300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-19600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-10800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-7600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LQDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LQDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>LQDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,320 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>70300</v>
+      </c>
+      <c r="F8" s="3">
         <v>69700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>61800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>55800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>55900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>47700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>52800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>49500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>58800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>56900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>56800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>54100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>52700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>50600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>60100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>61100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>61400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>65500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>72300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>70800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>30200</v>
+      </c>
+      <c r="F9" s="3">
         <v>28500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>26400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>22600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>22700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>22500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>26600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>24200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>27300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>25300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>24800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>25000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>24200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>19500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>28700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>27600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>29000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>30400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>34600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>32300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>40100</v>
+      </c>
+      <c r="F10" s="3">
         <v>41200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>35400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>33200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>33200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>25200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>26200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>25300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>31500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>31600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>32000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>29100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>28500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>31100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>31400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>33500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>32400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>35100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>37700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>38500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1002,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1069,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,90 +1140,102 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>2000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>1300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>2400</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="E15" s="3">
         <v>1700</v>
       </c>
       <c r="F15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H15" s="3">
         <v>1900</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1600</v>
       </c>
       <c r="I15" s="3">
         <v>1600</v>
@@ -1199,13 +1244,13 @@
         <v>1600</v>
       </c>
       <c r="K15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M15" s="3">
         <v>1500</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1200</v>
       </c>
       <c r="N15" s="3">
         <v>1200</v>
@@ -1214,31 +1259,37 @@
         <v>1200</v>
       </c>
       <c r="P15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R15" s="3">
         <v>1000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>1100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>1200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>1600</v>
-      </c>
-      <c r="T15" s="3">
-        <v>1400</v>
-      </c>
-      <c r="U15" s="3">
-        <v>1400</v>
       </c>
       <c r="V15" s="3">
         <v>1400</v>
       </c>
       <c r="W15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y15" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1310,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>62000</v>
+      </c>
+      <c r="F17" s="3">
         <v>61100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>56100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>51100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>50500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>47500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>57300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>54500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>64200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>61400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>61300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>59100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>59300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>53700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>65700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>67600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>75900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>74300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>80700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>79100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F18" s="3">
         <v>8600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>5700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>4700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>5400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-4500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-5000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-6600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-5600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-6500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-14500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-8800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-8400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-8300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1479,152 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F21" s="3">
         <v>10600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>7300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>6700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>7100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-3600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-5300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-4100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-4800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-12900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-7200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-6900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-6800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-22700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,138 +1688,156 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F23" s="3">
         <v>8800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>5700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>5500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-6500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-5300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-6000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-14500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-8600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-8300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-8300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>500</v>
-      </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>500</v>
       </c>
       <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
+        <v>500</v>
+      </c>
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-500</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1901,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>32800</v>
+      </c>
+      <c r="F26" s="3">
         <v>8400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>5300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>4500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>5400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-4600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-5000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-6500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-5700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-6400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-14000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-8600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-8300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-8400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>32800</v>
+      </c>
+      <c r="F27" s="3">
         <v>8400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>5300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>4500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>5400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-4600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-5000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-6500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-5700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-6400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-14000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-8600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-8300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-8400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,31 +2114,37 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2037,23 +2158,23 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>5500</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>5200</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2185,14 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2256,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2327,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>32800</v>
+      </c>
+      <c r="F33" s="3">
         <v>8400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>5300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>4500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>5400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-4600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-5000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-5700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-14000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-8600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-8300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-8400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2540,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>32800</v>
+      </c>
+      <c r="F35" s="3">
         <v>8400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>5300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>4500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>5400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-4600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-5000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-5700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-14000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-8600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-8300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-8400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2718,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2745,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>91300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>106300</v>
+      </c>
+      <c r="F41" s="3">
         <v>112700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>87600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>77800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>76000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>72700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>41800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>24200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>36500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>36400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>33900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>38500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>58400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>83400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>99700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>96800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>94300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>113900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>116100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>126900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>134500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2653,23 +2832,23 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>10000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>25000</v>
-      </c>
-      <c r="K42" s="3">
-        <v>30000</v>
-      </c>
-      <c r="L42" s="3">
-        <v>30000</v>
       </c>
       <c r="M42" s="3">
         <v>30000</v>
@@ -2678,16 +2857,16 @@
         <v>30000</v>
       </c>
       <c r="O42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="P42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="Q42" s="3">
         <v>20000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>10000</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
@@ -2704,268 +2883,298 @@
       <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F43" s="3">
         <v>5900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>6200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>5200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>7400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>8700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>9700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>8600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>9500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>7400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>8600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>7600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>6600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>5900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>6100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>7400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>12000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>12000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>13400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>11900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F44" s="3">
         <v>13800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>13100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>9900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>5600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>7400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>8500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>5800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>5800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>8900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>13100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>10500</v>
-      </c>
-      <c r="O44" s="3">
-        <v>10100</v>
-      </c>
-      <c r="P44" s="3">
-        <v>12800</v>
       </c>
       <c r="Q44" s="3">
         <v>10100</v>
       </c>
       <c r="R44" s="3">
+        <v>12800</v>
+      </c>
+      <c r="S44" s="3">
+        <v>10100</v>
+      </c>
+      <c r="T44" s="3">
         <v>17100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>20700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>18900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>22500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>26700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F45" s="3">
         <v>7200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>7900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>7900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>6000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>5900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>7000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>8100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>8100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>7900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>7000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>7800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>9100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>9100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>7400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>11900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>9900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>12200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>11600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>120500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>131800</v>
+      </c>
+      <c r="F46" s="3">
         <v>139500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>114900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>100900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>94600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>94900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>75800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>70500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>89900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>90800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>93500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>93600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>103000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>121200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>125000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>128700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>138900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>154700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>164200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>177100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>184900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,138 +3238,156 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>31100</v>
+      </c>
+      <c r="F48" s="3">
         <v>29000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>29900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>31000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>28400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>27800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>29400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>30400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>18800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>18600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>17900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>17300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>16600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>16000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>15900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>16500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>16800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>16700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>16100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>15600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>107900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>63300</v>
+      </c>
+      <c r="F49" s="3">
         <v>63800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>64100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>64600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>64600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>64700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>64900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>65500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>65500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>66100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>66400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>66800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>67200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>45700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>46100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>45900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>45800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>46600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>46800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>47100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3451,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3522,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>29300</v>
+      </c>
+      <c r="F52" s="3">
         <v>6100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>8600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>8900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>9100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>11500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>11900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>12800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>13000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>15200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>15300</v>
       </c>
       <c r="N52" s="3">
         <v>15200</v>
       </c>
       <c r="O52" s="3">
+        <v>15300</v>
+      </c>
+      <c r="P52" s="3">
+        <v>15200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>15100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>14600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>13200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>13800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>13700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>13600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>12900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>12900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3664,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>286900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>255600</v>
+      </c>
+      <c r="F54" s="3">
         <v>238400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>217600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>205300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>196600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>198900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>182100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>179200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>187300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>190700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>193100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>192900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>201800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>197400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>200100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>204800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>215200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>231600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>240000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>252700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>260100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3766,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3793,81 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>74300</v>
+      </c>
+      <c r="F57" s="3">
         <v>79200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>68500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>52500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>48100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>55300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>40500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>30600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>37000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>40000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>37900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>39100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>45000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>47400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>46100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>39300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>40600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>45600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>45200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>42800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>40400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,138 +3931,156 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>34800</v>
+      </c>
+      <c r="F59" s="3">
         <v>30800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>30000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>24800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>26200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>24900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>24800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>26600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>31800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>27600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>25900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>23700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>23500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>18200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>19200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>26500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>30200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>31700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>34200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>43100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>45100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>109200</v>
+      </c>
+      <c r="F60" s="3">
         <v>110000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>98400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>77300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>74300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>80200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>65300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>57300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>68800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>67500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>63800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>62800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>68500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>65600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>65300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>65700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>70800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>77400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>79400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>85800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>85500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,73 +4144,85 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F62" s="3">
         <v>11800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>12200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>12900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>10500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>8400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>8600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>9500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>4800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>3700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>6500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>6700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>6600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>11800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>10600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>10900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>11100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4286,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4357,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4428,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>120600</v>
+      </c>
+      <c r="F66" s="3">
         <v>121800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>110600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>90200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>84800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>88600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>74000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>66800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>71100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>69600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>68600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>66400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>72200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>72100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>72000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>72300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>82600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>88000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>90300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>96900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4530,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4597,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4668,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4739,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4810,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-71400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-104200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-112600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-117800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-122300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-127800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-128000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-123800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-118600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-113300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-108700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-104300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-100000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-98800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-95300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-89700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-88200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-74300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-65600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-57400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4952,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5023,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5094,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>137100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>135000</v>
+      </c>
+      <c r="F76" s="3">
         <v>116600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>106900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>115100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>111800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>110200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>108100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>112400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>116200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>121100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>124500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>126500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>129700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>125300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>128100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>132500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>132600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>143600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>149800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>155800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5236,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>32800</v>
+      </c>
+      <c r="F81" s="3">
         <v>8400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>5300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>4500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>5400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-4600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-5000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-5700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-14000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-8600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-8300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-8400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,25 +5414,27 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="E83" s="3">
         <v>1700</v>
       </c>
       <c r="F83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H83" s="3">
         <v>1900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1600</v>
       </c>
       <c r="I83" s="3">
         <v>1600</v>
@@ -5046,13 +5443,13 @@
         <v>1600</v>
       </c>
       <c r="K83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M83" s="3">
         <v>1500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1200</v>
       </c>
       <c r="N83" s="3">
         <v>1200</v>
@@ -5061,31 +5458,37 @@
         <v>1200</v>
       </c>
       <c r="P83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R83" s="3">
         <v>1000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>1100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>1200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>1600</v>
-      </c>
-      <c r="T83" s="3">
-        <v>1400</v>
-      </c>
-      <c r="U83" s="3">
-        <v>1400</v>
       </c>
       <c r="V83" s="3">
         <v>1400</v>
       </c>
       <c r="W83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5552,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5623,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5694,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5765,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5836,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F89" s="3">
         <v>23000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>25300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>6000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>7300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>21300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>6500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-18600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>4400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-3500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-8100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>3000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>3500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-17400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-9300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-5000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5938,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1600</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-1700</v>
       </c>
       <c r="V91" s="3">
         <v>-2300</v>
       </c>
       <c r="W91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="X91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6076,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +6147,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F94" s="3">
         <v>2500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>9200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>13500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>6200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-11600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-25200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-1000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1600</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-1700</v>
       </c>
       <c r="V94" s="3">
         <v>-2300</v>
       </c>
       <c r="W94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="X94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6249,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6316,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6387,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6458,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6529,85 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-15000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-4000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-3900</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-1200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6118,125 +6615,137 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="F101" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>300</v>
       </c>
       <c r="H101" s="3">
+        <v>600</v>
+      </c>
+      <c r="I101" s="3">
+        <v>300</v>
+      </c>
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>600</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F102" s="3">
         <v>25100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>9800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>3300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>30900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>17600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-12300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-4600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-19900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-25000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-16300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>2900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>2400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-19600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-2200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-10800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-7600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LQDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LQDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>LQDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>68300</v>
+      </c>
+      <c r="E8" s="3">
         <v>66700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>70300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>69700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>61800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>55800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>55900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>47700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>52800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>49500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>58800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>56900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>56800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>54100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>52700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>50600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>60100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>61100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>61400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>65500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>72300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>70800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E9" s="3">
         <v>27800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>30200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>28500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>26400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>22600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>22700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>22500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>26600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>24200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>27300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>25300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>24800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>25000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>24200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>19500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>28700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>27600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>29000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>30400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>34600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>32300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E10" s="3">
         <v>38900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>40100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>41200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>35400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>33200</v>
       </c>
       <c r="I10" s="3">
         <v>33200</v>
       </c>
       <c r="J10" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K10" s="3">
         <v>25200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>25300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>31500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>31600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>32000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>29100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>28500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>31100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>31400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>33500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>32400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>35100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>37700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>38500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,55 +1163,58 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>200</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2400</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1202,12 +1222,12 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>1000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1215,18 +1235,21 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E15" s="3">
         <v>2300</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1700</v>
       </c>
       <c r="F15" s="3">
         <v>1700</v>
@@ -1235,10 +1258,10 @@
         <v>1700</v>
       </c>
       <c r="H15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I15" s="3">
         <v>1900</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1600</v>
       </c>
       <c r="J15" s="3">
         <v>1600</v>
@@ -1250,10 +1273,10 @@
         <v>1600</v>
       </c>
       <c r="M15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N15" s="3">
         <v>1500</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1200</v>
       </c>
       <c r="O15" s="3">
         <v>1200</v>
@@ -1265,19 +1288,19 @@
         <v>1200</v>
       </c>
       <c r="R15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S15" s="3">
         <v>1000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>1200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>1600</v>
-      </c>
-      <c r="V15" s="3">
-        <v>1400</v>
       </c>
       <c r="W15" s="3">
         <v>1400</v>
@@ -1286,10 +1309,13 @@
         <v>1400</v>
       </c>
       <c r="Y15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z15" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E17" s="3">
         <v>62200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>62000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>61100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>56100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>51100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>50500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>47500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>57300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>54500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>64200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>61400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>61300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>59100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>59300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>53700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>65700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>67600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>75900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>74300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>80700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>79100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-4500</v>
       </c>
       <c r="O18" s="3">
         <v>-4500</v>
       </c>
       <c r="P18" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-6500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-14500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-8800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-8400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-8300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
       </c>
       <c r="K20" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L20" s="3">
         <v>300</v>
       </c>
       <c r="M20" s="3">
+        <v>300</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E21" s="3">
         <v>6900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3600</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-2900</v>
       </c>
       <c r="O21" s="3">
         <v>-2900</v>
       </c>
       <c r="P21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-12900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-7200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-6900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-6800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-22700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,150 +1734,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E23" s="3">
         <v>4600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-14500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-8600</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-8300</v>
       </c>
       <c r="X23" s="3">
         <v>-8300</v>
       </c>
       <c r="Y23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-24500</v>
-      </c>
-      <c r="F24" s="3">
-        <v>400</v>
       </c>
       <c r="G24" s="3">
         <v>400</v>
       </c>
       <c r="H24" s="3">
+        <v>400</v>
+      </c>
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
-      </c>
-      <c r="O24" s="3">
-        <v>300</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>600</v>
-      </c>
-      <c r="S24" s="3">
-        <v>400</v>
       </c>
       <c r="T24" s="3">
         <v>400</v>
       </c>
       <c r="U24" s="3">
+        <v>400</v>
+      </c>
+      <c r="V24" s="3">
         <v>-500</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>-100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>32800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-5200</v>
       </c>
       <c r="M26" s="3">
         <v>-5200</v>
       </c>
       <c r="N26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-4600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-14000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-8600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-8300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-8400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>32800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-5200</v>
       </c>
       <c r="M27" s="3">
         <v>-5200</v>
       </c>
       <c r="N27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-4600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-14000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-8600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-8300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-8400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2146,8 +2207,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2164,20 +2225,20 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>5500</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>5200</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-200</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
       </c>
       <c r="K32" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L32" s="3">
         <v>-300</v>
       </c>
       <c r="M32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>32800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-5200</v>
       </c>
       <c r="M33" s="3">
         <v>-5200</v>
       </c>
       <c r="N33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-4600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-14000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-8600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-8300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-8400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>32800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-5200</v>
       </c>
       <c r="M35" s="3">
         <v>-5200</v>
       </c>
       <c r="N35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-4600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-14000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-8600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-8300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-8400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,96 +2833,100 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>84300</v>
+      </c>
+      <c r="E41" s="3">
         <v>91300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>106300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>112700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>87600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>77800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>76000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>72700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>36500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>36400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>33900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>38500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>58400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>83400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>99700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>96800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>94300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>113900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>116100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>126900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>134500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -2845,13 +2935,13 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>10000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>25000</v>
-      </c>
-      <c r="M42" s="3">
-        <v>30000</v>
       </c>
       <c r="N42" s="3">
         <v>30000</v>
@@ -2863,13 +2953,13 @@
         <v>30000</v>
       </c>
       <c r="Q42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="R42" s="3">
         <v>20000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10000</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
@@ -2889,150 +2979,159 @@
       <c r="Y42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E43" s="3">
         <v>8500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7400</v>
-      </c>
-      <c r="U43" s="3">
-        <v>12000</v>
       </c>
       <c r="V43" s="3">
         <v>12000</v>
       </c>
       <c r="W43" s="3">
+        <v>12000</v>
+      </c>
+      <c r="X43" s="3">
         <v>13400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>11900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E44" s="3">
         <v>13200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>12500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>13800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>13100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>9900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8500</v>
-      </c>
-      <c r="L44" s="3">
-        <v>5800</v>
       </c>
       <c r="M44" s="3">
         <v>5800</v>
       </c>
       <c r="N44" s="3">
+        <v>5800</v>
+      </c>
+      <c r="O44" s="3">
         <v>8900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>13100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>10500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>10100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>12800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>10100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>17100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>20700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>18900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>22500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>26700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3040,141 +3139,147 @@
         <v>7400</v>
       </c>
       <c r="E45" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F45" s="3">
         <v>6600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>7900</v>
       </c>
       <c r="H45" s="3">
         <v>7900</v>
       </c>
       <c r="I45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J45" s="3">
         <v>5600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7000</v>
-      </c>
-      <c r="M45" s="3">
-        <v>8100</v>
       </c>
       <c r="N45" s="3">
         <v>8100</v>
       </c>
       <c r="O45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="P45" s="3">
         <v>7900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7800</v>
-      </c>
-      <c r="R45" s="3">
-        <v>9100</v>
       </c>
       <c r="S45" s="3">
         <v>9100</v>
       </c>
       <c r="T45" s="3">
+        <v>9100</v>
+      </c>
+      <c r="U45" s="3">
         <v>7400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>11900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>9900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>12200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>11600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>112200</v>
+      </c>
+      <c r="E46" s="3">
         <v>120500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>131800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>139500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>114900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>100900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>94600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>94900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>75800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>70500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>89900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>90800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>93500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>93600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>103000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>121200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>125000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>128700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>138900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>154700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>164200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>177100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>184900</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,79 +3349,85 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E48" s="3">
         <v>33500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>28400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>27800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>30400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>16100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>15600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3324,70 +3435,73 @@
         <v>107900</v>
       </c>
       <c r="E49" s="3">
+        <v>107900</v>
+      </c>
+      <c r="F49" s="3">
         <v>63300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>63800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>64100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>64600</v>
       </c>
       <c r="I49" s="3">
         <v>64600</v>
       </c>
       <c r="J49" s="3">
+        <v>64600</v>
+      </c>
+      <c r="K49" s="3">
         <v>64700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>64900</v>
-      </c>
-      <c r="L49" s="3">
-        <v>65500</v>
       </c>
       <c r="M49" s="3">
         <v>65500</v>
       </c>
       <c r="N49" s="3">
+        <v>65500</v>
+      </c>
+      <c r="O49" s="3">
         <v>66100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>66400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>66800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>67200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>45700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>46100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>45900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>45800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>46600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>46800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>47100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E52" s="3">
         <v>25000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>29300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>15200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>15300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>15200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>15100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>14600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>13200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>13800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>13700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>13600</v>
-      </c>
-      <c r="W52" s="3">
-        <v>12900</v>
       </c>
       <c r="X52" s="3">
         <v>12900</v>
       </c>
       <c r="Y52" s="3">
+        <v>12900</v>
+      </c>
+      <c r="Z52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>276800</v>
+      </c>
+      <c r="E54" s="3">
         <v>286900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>255600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>238400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>217600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>205300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>196600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>198900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>182100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>179200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>187300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>190700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>193100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>192900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>201800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>197400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>200100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>204800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>215200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>231600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>240000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>252700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>260100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,79 +3925,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>85300</v>
+      </c>
+      <c r="E57" s="3">
         <v>80200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>74300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>79200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>68500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>52500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>48100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>55300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>40500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>30600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>37000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>40000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>37900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>39100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>45000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>47400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>46100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>39300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>40600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>45600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>45200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>42800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>40400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,150 +4071,159 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E59" s="3">
         <v>44800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>34800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>30800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>30000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>26200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>26600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>31800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>27600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>25900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>23700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>23500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>18200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>19200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>26500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>30200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>31700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>34200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>43100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>45100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>132600</v>
+      </c>
+      <c r="E60" s="3">
         <v>125000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>109200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>110000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>98400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>77300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>74300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>80200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>65300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>57300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>68800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>67500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>63800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>62800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>68500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>65600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>65300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>65700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>70800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>77400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>79400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>85800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>85500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,79 +4293,85 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E62" s="3">
         <v>24800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>12200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>11800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>10600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>10900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>11100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>143800</v>
+      </c>
+      <c r="E66" s="3">
         <v>149800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>120600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>121800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>110600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>90200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>84800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>88600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>74000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>66800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>71100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>69600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>68600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>66400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>72200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>72100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>72000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>72300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>82600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>88000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>90300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>96900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-55700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-67700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-71400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-104200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-112600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-117800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-122300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-127800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-128000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-123800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-118600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-113300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-108700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-104300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-100000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-98800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-95300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-89700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-88200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-74300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-65600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-57400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E76" s="3">
         <v>137100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>135000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>116600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>106900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>115100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>111800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>110200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>108100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>112400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>116200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>121100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>124500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>126500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>129700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>125300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>128100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>132500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>132600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>143600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>149800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>155800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>32800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-5200</v>
       </c>
       <c r="M81" s="3">
         <v>-5200</v>
       </c>
       <c r="N81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-4600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-14000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-8600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-8300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-8400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,16 +5614,17 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E83" s="3">
         <v>2300</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1700</v>
       </c>
       <c r="F83" s="3">
         <v>1700</v>
@@ -5434,10 +5633,10 @@
         <v>1700</v>
       </c>
       <c r="H83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I83" s="3">
         <v>1900</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1600</v>
       </c>
       <c r="J83" s="3">
         <v>1600</v>
@@ -5449,10 +5648,10 @@
         <v>1600</v>
       </c>
       <c r="M83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N83" s="3">
         <v>1500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1200</v>
       </c>
       <c r="O83" s="3">
         <v>1200</v>
@@ -5464,19 +5663,19 @@
         <v>1200</v>
       </c>
       <c r="R83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S83" s="3">
         <v>1000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1600</v>
-      </c>
-      <c r="V83" s="3">
-        <v>1400</v>
       </c>
       <c r="W83" s="3">
         <v>1400</v>
@@ -5485,10 +5684,13 @@
         <v>1400</v>
       </c>
       <c r="Y83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E89" s="3">
         <v>1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>11100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>23000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>25300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>21300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-18600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-17400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-9300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-1100</v>
       </c>
       <c r="G91" s="3">
         <v>-1100</v>
       </c>
       <c r="H91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>9200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>13500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>6200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-25200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11000</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-1000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,56 +6778,59 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-15300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-15000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3900</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -6592,11 +6838,11 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-1200</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
@@ -6604,10 +6850,13 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6615,137 +6864,143 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>600</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-15000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>25100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>30900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-12300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-25000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-16300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-19600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-10800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LQDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LQDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>LQDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E8" s="3">
         <v>68300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>66700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>70300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>69700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>61800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>55800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>55900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>47700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>52800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>49500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>58800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>56900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>56800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>54100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>52700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>50600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>60100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>61100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>61400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>65500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>72300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>70800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E9" s="3">
         <v>29000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>27800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>30200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>28500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>26400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>22600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>22700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>26600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>24200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>27300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>25300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>24800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>25000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>24200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>19500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>28700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>27600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>29000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>30400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>34600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>32300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E10" s="3">
         <v>39300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>38900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>40100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>41200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>35400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>33200</v>
       </c>
       <c r="J10" s="3">
         <v>33200</v>
       </c>
       <c r="K10" s="3">
+        <v>33200</v>
+      </c>
+      <c r="L10" s="3">
         <v>25200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>25300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>31500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>31600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>32000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>29100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>28500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>31100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>31400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>33500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>32400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>35100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>37700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>38500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1175,49 +1195,49 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2400</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1225,12 +1245,12 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>1000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -1238,10 +1258,13 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1249,10 +1272,10 @@
         <v>2600</v>
       </c>
       <c r="E15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F15" s="3">
         <v>2300</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1700</v>
       </c>
       <c r="G15" s="3">
         <v>1700</v>
@@ -1261,10 +1284,10 @@
         <v>1700</v>
       </c>
       <c r="I15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J15" s="3">
         <v>1900</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1600</v>
       </c>
       <c r="K15" s="3">
         <v>1600</v>
@@ -1276,10 +1299,10 @@
         <v>1600</v>
       </c>
       <c r="N15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O15" s="3">
         <v>1500</v>
-      </c>
-      <c r="O15" s="3">
-        <v>1200</v>
       </c>
       <c r="P15" s="3">
         <v>1200</v>
@@ -1291,19 +1314,19 @@
         <v>1200</v>
       </c>
       <c r="S15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T15" s="3">
         <v>1000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>1100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>1200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>1600</v>
-      </c>
-      <c r="W15" s="3">
-        <v>1400</v>
       </c>
       <c r="X15" s="3">
         <v>1400</v>
@@ -1312,10 +1335,13 @@
         <v>1400</v>
       </c>
       <c r="Z15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA15" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E17" s="3">
         <v>55300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>62200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>62000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>61100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>56100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>51100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>50500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>47500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>57300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>54500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>64200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>61400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>61300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>59100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>59300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>53700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>65700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>67600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>75900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>74300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>80700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>79100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E18" s="3">
         <v>13000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-4500</v>
       </c>
       <c r="P18" s="3">
         <v>-4500</v>
       </c>
       <c r="Q18" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="R18" s="3">
         <v>-5000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-6500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-14500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-8800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-8400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-8300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>200</v>
       </c>
       <c r="L20" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>300</v>
       </c>
       <c r="N20" s="3">
+        <v>300</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E21" s="3">
         <v>15600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>7300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3600</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-2900</v>
       </c>
       <c r="P21" s="3">
         <v>-2900</v>
       </c>
       <c r="Q21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="R21" s="3">
         <v>-3600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-12900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-7200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-6900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-6800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-22700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,156 +1777,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E23" s="3">
         <v>13000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-6000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-14500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-8600</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-8300</v>
       </c>
       <c r="Y23" s="3">
         <v>-8300</v>
       </c>
       <c r="Z23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-24500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>400</v>
       </c>
       <c r="H24" s="3">
         <v>400</v>
       </c>
       <c r="I24" s="3">
+        <v>400</v>
+      </c>
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
-      </c>
-      <c r="P24" s="3">
-        <v>300</v>
       </c>
       <c r="Q24" s="3">
         <v>300</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>600</v>
-      </c>
-      <c r="T24" s="3">
-        <v>400</v>
       </c>
       <c r="U24" s="3">
         <v>400</v>
       </c>
       <c r="V24" s="3">
+        <v>400</v>
+      </c>
+      <c r="W24" s="3">
         <v>-500</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E26" s="3">
         <v>12000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>32800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-5200</v>
       </c>
       <c r="N26" s="3">
         <v>-5200</v>
       </c>
       <c r="O26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-4600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-14000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-8600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-8300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-8400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E27" s="3">
         <v>12000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>32800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-5200</v>
       </c>
       <c r="N27" s="3">
         <v>-5200</v>
       </c>
       <c r="O27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-4600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-14000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-8600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-8300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-8400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2210,8 +2271,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2228,20 +2289,20 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>5500</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>5200</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>-200</v>
       </c>
       <c r="L32" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>-300</v>
       </c>
       <c r="N32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E33" s="3">
         <v>12000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>32800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-5200</v>
       </c>
       <c r="N33" s="3">
         <v>-5200</v>
       </c>
       <c r="O33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-4600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-14000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-8600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-8300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-8400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E35" s="3">
         <v>12000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>32800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-5200</v>
       </c>
       <c r="N35" s="3">
         <v>-5200</v>
       </c>
       <c r="O35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-4600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-14000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-8600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-8300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-8400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>88300</v>
+      </c>
+      <c r="E41" s="3">
         <v>84300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>91300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>106300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>112700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>87600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>77800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>76000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>72700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>41800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>36500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>36400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>33900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>38500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>58400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>83400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>99700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>96800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>94300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>113900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>116100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>126900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>134500</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2938,13 +3028,13 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>10000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>25000</v>
-      </c>
-      <c r="N42" s="3">
-        <v>30000</v>
       </c>
       <c r="O42" s="3">
         <v>30000</v>
@@ -2956,13 +3046,13 @@
         <v>30000</v>
       </c>
       <c r="R42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="S42" s="3">
         <v>20000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10000</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>8</v>
@@ -2982,304 +3072,319 @@
       <c r="Z42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E43" s="3">
         <v>7400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7400</v>
-      </c>
-      <c r="V43" s="3">
-        <v>12000</v>
       </c>
       <c r="W43" s="3">
         <v>12000</v>
       </c>
       <c r="X43" s="3">
+        <v>12000</v>
+      </c>
+      <c r="Y43" s="3">
         <v>13400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>11900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E44" s="3">
         <v>13100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>12500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>13800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>13100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>9900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8500</v>
-      </c>
-      <c r="M44" s="3">
-        <v>5800</v>
       </c>
       <c r="N44" s="3">
         <v>5800</v>
       </c>
       <c r="O44" s="3">
+        <v>5800</v>
+      </c>
+      <c r="P44" s="3">
         <v>8900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>13100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>10500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>10100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>12800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>10100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>17100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>20700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>18900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>22500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>26700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7400</v>
+        <v>8700</v>
       </c>
       <c r="E45" s="3">
         <v>7400</v>
       </c>
       <c r="F45" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G45" s="3">
         <v>6600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>7900</v>
       </c>
       <c r="I45" s="3">
         <v>7900</v>
       </c>
       <c r="J45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K45" s="3">
         <v>5600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7000</v>
-      </c>
-      <c r="N45" s="3">
-        <v>8100</v>
       </c>
       <c r="O45" s="3">
         <v>8100</v>
       </c>
       <c r="P45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>7900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7800</v>
-      </c>
-      <c r="S45" s="3">
-        <v>9100</v>
       </c>
       <c r="T45" s="3">
         <v>9100</v>
       </c>
       <c r="U45" s="3">
+        <v>9100</v>
+      </c>
+      <c r="V45" s="3">
         <v>7400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>11900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>9900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>12200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>11600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>120300</v>
+      </c>
+      <c r="E46" s="3">
         <v>112200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>120500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>131800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>139500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>114900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>100900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>94600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>94900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>75800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>70500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>89900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>90800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>93500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>93600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>103000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>121200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>125000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>128700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>138900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>154700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>164200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>177100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>184900</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,156 +3457,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E48" s="3">
         <v>32300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>33500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>31100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>31000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>28400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>30400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>15900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>16700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>16100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>15600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>107900</v>
+        <v>106500</v>
       </c>
       <c r="E49" s="3">
         <v>107900</v>
       </c>
       <c r="F49" s="3">
+        <v>107900</v>
+      </c>
+      <c r="G49" s="3">
         <v>63300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>63800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>64100</v>
-      </c>
-      <c r="I49" s="3">
-        <v>64600</v>
       </c>
       <c r="J49" s="3">
         <v>64600</v>
       </c>
       <c r="K49" s="3">
+        <v>64600</v>
+      </c>
+      <c r="L49" s="3">
         <v>64700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>64900</v>
-      </c>
-      <c r="M49" s="3">
-        <v>65500</v>
       </c>
       <c r="N49" s="3">
         <v>65500</v>
       </c>
       <c r="O49" s="3">
+        <v>65500</v>
+      </c>
+      <c r="P49" s="3">
         <v>66100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>66400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>66800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>67200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>45700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>46100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>45900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>45800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>46600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>46800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>47100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E52" s="3">
         <v>24400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>25000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>29300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>15200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>15300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>15200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>15100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>14600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>13200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>13800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>13700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>13600</v>
-      </c>
-      <c r="X52" s="3">
-        <v>12900</v>
       </c>
       <c r="Y52" s="3">
         <v>12900</v>
       </c>
       <c r="Z52" s="3">
+        <v>12900</v>
+      </c>
+      <c r="AA52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>282800</v>
+      </c>
+      <c r="E54" s="3">
         <v>276800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>286900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>255600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>238400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>217600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>205300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>196600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>198900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>182100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>179200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>187300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>190700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>193100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>192900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>201800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>197400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>200100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>204800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>215200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>231600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>240000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>252700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>260100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,82 +4056,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>92500</v>
+      </c>
+      <c r="E57" s="3">
         <v>85300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>80200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>74300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>79200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>68500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>52500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>48100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>55300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>40500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>30600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>37000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>40000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>37900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>39100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>45000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>47400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>46100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>39300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>40600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>45600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>45200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>42800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>40400</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,156 +4208,165 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E59" s="3">
         <v>47300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>44800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>30800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>30000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>26200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>24800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>26600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>31800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>27600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>25900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>23700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>23500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>18200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>19200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>26500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>30200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>31700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>34200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>43100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>45100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>126900</v>
+      </c>
+      <c r="E60" s="3">
         <v>132600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>125000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>109200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>110000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>98400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>77300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>74300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>80200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>65300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>57300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>68800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>67500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>63800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>62800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>68500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>65600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>65300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>65700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>70800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>77400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>79400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>85800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>85500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,82 +4439,88 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E62" s="3">
         <v>11200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>11800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>10600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>10900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>11100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>138100</v>
+      </c>
+      <c r="E66" s="3">
         <v>143800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>149800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>120600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>121800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>110600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>90200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>84800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>88600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>74000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>66800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>71100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>69600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>68600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>66400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>72200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>72100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>72000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>72300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>82600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>88000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>90300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>96900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-55700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-67700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-71400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-104200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-112600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-117800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-122300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-127800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-128000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-123800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-118600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-113300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-108700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-104300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-100000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-98800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-95300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-89700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-88200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-74300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-65600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-57400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>144700</v>
+      </c>
+      <c r="E76" s="3">
         <v>133000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>137100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>135000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>116600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>106900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>115100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>111800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>110200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>108100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>112400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>116200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>121100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>124500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>126500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>129700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>125300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>128100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>132500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>132600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>143600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>149800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>155800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E81" s="3">
         <v>12000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>32800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-5200</v>
       </c>
       <c r="N81" s="3">
         <v>-5200</v>
       </c>
       <c r="O81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-4600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-14000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-8600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-8300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-8400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5624,10 +5823,10 @@
         <v>2600</v>
       </c>
       <c r="E83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F83" s="3">
         <v>2300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1700</v>
       </c>
       <c r="G83" s="3">
         <v>1700</v>
@@ -5636,10 +5835,10 @@
         <v>1700</v>
       </c>
       <c r="I83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J83" s="3">
         <v>1900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1600</v>
       </c>
       <c r="K83" s="3">
         <v>1600</v>
@@ -5651,10 +5850,10 @@
         <v>1600</v>
       </c>
       <c r="N83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O83" s="3">
         <v>1500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>1200</v>
       </c>
       <c r="P83" s="3">
         <v>1200</v>
@@ -5666,19 +5865,19 @@
         <v>1200</v>
       </c>
       <c r="S83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T83" s="3">
         <v>1000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1600</v>
-      </c>
-      <c r="W83" s="3">
-        <v>1400</v>
       </c>
       <c r="X83" s="3">
         <v>1400</v>
@@ -5687,10 +5886,13 @@
         <v>1400</v>
       </c>
       <c r="Z83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E89" s="3">
         <v>12800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>11100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>23000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-18600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-17400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-9300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1100</v>
       </c>
       <c r="H91" s="3">
         <v>-1100</v>
       </c>
       <c r="I91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>9200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>13500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>6200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-25200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11000</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-1000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,59 +7024,62 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-18100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-15300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-15000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3900</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6841,11 +7087,11 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-1200</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
@@ -6853,154 +7099,163 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>600</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>25100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>30900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>17600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-12300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-19900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-25000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-16300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-19600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-10800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-7600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LQDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LQDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>LQDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,371 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>72300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>75200</v>
+      </c>
+      <c r="F8" s="3">
         <v>69900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>68300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>66700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>70300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>69700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>61800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>55800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>55900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>47700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>52800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>49500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>58800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>56900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>56800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>54100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>52700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>50600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>60100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>61100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>61400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>65500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>72300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>70800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>33700</v>
+      </c>
+      <c r="F9" s="3">
         <v>28900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>29000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>27800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>30200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>28500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>26400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>22600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>22700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>22500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>26600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>24200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>27300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>25300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>24800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>25000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>24200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>19500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>28700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>27600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>29000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>30400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>34600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>32300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>41500</v>
+      </c>
+      <c r="F10" s="3">
         <v>41000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>39300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>38900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>40100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>41200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>35400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>33200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>33200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>25200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>26200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>25300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>31500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>31600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>32000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>29100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>28500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>31100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>31400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>33500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>32400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>35100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>37700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>38500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1057,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1136,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,114 +1219,126 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>1600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>2000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>1300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>2400</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3">
         <v>1000</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F15" s="3">
         <v>2600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>2600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>2300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1700</v>
       </c>
       <c r="I15" s="3">
         <v>1700</v>
       </c>
       <c r="J15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L15" s="3">
         <v>1900</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1600</v>
       </c>
       <c r="M15" s="3">
         <v>1600</v>
@@ -1302,13 +1347,13 @@
         <v>1600</v>
       </c>
       <c r="O15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q15" s="3">
         <v>1500</v>
-      </c>
-      <c r="P15" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>1200</v>
       </c>
       <c r="R15" s="3">
         <v>1200</v>
@@ -1317,31 +1362,37 @@
         <v>1200</v>
       </c>
       <c r="T15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V15" s="3">
         <v>1000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>1100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>1200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>1600</v>
-      </c>
-      <c r="X15" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>1400</v>
       </c>
       <c r="Z15" s="3">
         <v>1400</v>
       </c>
       <c r="AA15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AC15" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>64000</v>
+      </c>
+      <c r="F17" s="3">
         <v>51200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>55300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>62200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>62000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>61100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>56100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>51100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>50500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>47500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>57300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>54500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>64200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>61400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>61300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>59100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>59300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>53700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>65700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>67600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>75900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>74300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>80700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>79100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F18" s="3">
         <v>18700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>13000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>4500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>8300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>8600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>5700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>5400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-5000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-5400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-4500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-5000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-6600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-3100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-5600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-6500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-14500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-8400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-8300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,185 +1614,199 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F21" s="3">
         <v>21200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>15600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>6900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>10000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>10600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>7300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>6700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>7100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-3200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-3600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-5300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-2100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-4100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-4800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-12900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-6900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-6800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-22700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1780,162 +1859,180 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F23" s="3">
         <v>18600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>13000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>4600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>8300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>8800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>5700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>5500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-5200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-4000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-4800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-6500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-3100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-5300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-6000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-14500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-8600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-8300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-8300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F24" s="3">
         <v>2200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-24500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>500</v>
-      </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>500</v>
       </c>
       <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3">
+        <v>500</v>
+      </c>
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-500</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F26" s="3">
         <v>16400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>12000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>3600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>32800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>8400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>5300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>5400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-5200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-5200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-4400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-5000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-6500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-3700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-5700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-6400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-14000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-8600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-8300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-8400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F27" s="3">
         <v>16400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>12000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>32800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>8400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>5300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>5400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-5200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-5200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-4400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-5000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-6500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-3700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-5700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-6400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-14000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-8600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-8300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-8400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2274,11 +2395,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2292,23 +2413,23 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>5500</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>5200</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2606,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F33" s="3">
         <v>16400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>12000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>32800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>8400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>5300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>5400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-5200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-5200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-4400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-5000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-3700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-5700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-14000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-8600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-8300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-8400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F35" s="3">
         <v>16400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>12000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>32800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>8400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>5300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>5400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-5200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-5200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-4400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-5000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-3700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-5700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-14000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-8600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-8300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-8400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,108 +3092,116 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>96100</v>
+      </c>
+      <c r="F41" s="3">
         <v>88300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>84300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>91300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>106300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>112700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>87600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>77800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>76000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>72700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>41800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>24200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>36500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>36400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>33900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>38500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>58400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>83400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>99700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>96800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>94300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>113900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>116100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>126900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>134500</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>1800</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3031,16 +3210,16 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>10000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>25000</v>
-      </c>
-      <c r="O42" s="3">
-        <v>30000</v>
-      </c>
-      <c r="P42" s="3">
-        <v>30000</v>
       </c>
       <c r="Q42" s="3">
         <v>30000</v>
@@ -3049,16 +3228,16 @@
         <v>30000</v>
       </c>
       <c r="S42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="T42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="U42" s="3">
         <v>20000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>10000</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>8</v>
@@ -3075,316 +3254,346 @@
       <c r="AA42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F43" s="3">
         <v>9000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>7400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>8500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>6500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>5900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>6200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>5200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>7400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>8700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>9700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>8600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>9500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>7400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>8600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>7600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>6600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>5900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>6100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>7400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>12000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>12000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>13400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>11900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F44" s="3">
         <v>14400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>13100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>13200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>12500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>13800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>13100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>9900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>5600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>7400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>8500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>5800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>5800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>8900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>13100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>10500</v>
-      </c>
-      <c r="S44" s="3">
-        <v>10100</v>
-      </c>
-      <c r="T44" s="3">
-        <v>12800</v>
       </c>
       <c r="U44" s="3">
         <v>10100</v>
       </c>
       <c r="V44" s="3">
+        <v>12800</v>
+      </c>
+      <c r="W44" s="3">
+        <v>10100</v>
+      </c>
+      <c r="X44" s="3">
         <v>17100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>20700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>18900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>22500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>26700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F45" s="3">
         <v>8700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>7400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>7400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>6600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>7200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>7900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>7900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>6000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>5900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>7000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>8100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>8100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>7900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>7000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>7800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>9100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>9100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>7400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>11900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>9900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>12200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>11600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>113600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>129600</v>
+      </c>
+      <c r="F46" s="3">
         <v>120300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>112200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>120500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>131800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>139500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>114900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>100900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>94600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>94900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>75800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>70500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>89900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>90800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>93500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>93600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>103000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>121200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>125000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>128700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>138900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>154700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>164200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>177100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>184900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,162 +3669,180 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33400</v>
+        <v>30700</v>
       </c>
       <c r="E48" s="3">
         <v>32300</v>
       </c>
       <c r="F48" s="3">
+        <v>33400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>32300</v>
+      </c>
+      <c r="H48" s="3">
         <v>33500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>31100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>29000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>29900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>31000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>28400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>27800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>29400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>30400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>18800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>18600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>17900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>17300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>16600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>16000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>15900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>16500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>16800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>16700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>16100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>15600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>104600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>105100</v>
+      </c>
+      <c r="F49" s="3">
         <v>106500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>107900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>107900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>63300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>63800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>64100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>64600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>64600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>64700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>64900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>65500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>65500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>66100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>66400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>66800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>67200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>45700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>46100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>45900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>45800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>46600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>46800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>47100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4001,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F52" s="3">
         <v>22600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>24400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>25000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>29300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>6100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>8600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>8900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>9100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>11500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>11900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>12800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>13000</v>
-      </c>
-      <c r="P52" s="3">
-        <v>15200</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>15300</v>
       </c>
       <c r="R52" s="3">
         <v>15200</v>
       </c>
       <c r="S52" s="3">
+        <v>15300</v>
+      </c>
+      <c r="T52" s="3">
+        <v>15200</v>
+      </c>
+      <c r="U52" s="3">
         <v>15100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>14600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>13200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>13800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>13700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>13600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>12900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>12900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>269200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>288100</v>
+      </c>
+      <c r="F54" s="3">
         <v>282800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>276800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>286900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>255600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>238400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>217600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>205300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>196600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>198900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>182100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>179200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>187300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>190700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>193100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>192900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>201800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>197400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>200100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>204800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>215200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>231600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>240000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>252700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>260100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4316,93 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>75200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>91200</v>
+      </c>
+      <c r="F57" s="3">
         <v>92500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>85300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>80200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>74300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>79200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>68500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>52500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>48100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>55300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>40500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>30600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>37000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>40000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>37900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>39100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>45000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>47400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>46100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>39300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>40600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>45600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>45200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>42800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>40400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,162 +4478,180 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>32300</v>
+      </c>
+      <c r="F59" s="3">
         <v>34400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>47300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>44800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>34800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>30800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>30000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>24800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>26200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>24900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>24800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>26600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>31800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>27600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>25900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>23700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>23500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>18200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>19200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>26500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>30200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>31700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>34200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>43100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>45100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>105400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>123500</v>
+      </c>
+      <c r="F60" s="3">
         <v>126900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>132600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>125000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>109200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>110000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>98400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>77300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>74300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>80200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>65300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>57300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>68800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>67500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>63800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>62800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>68500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>65600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>65300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>65700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>70800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>77400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>79400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>85800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>85500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,85 +4727,97 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F62" s="3">
         <v>11300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>11200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>24800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>11400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>11800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>12200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>12900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>10500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>8400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>8600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>9500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>4800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>3600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>3700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>6500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>6700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>6600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>11800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>10600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>10900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>11100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>114200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>133600</v>
+      </c>
+      <c r="F66" s="3">
         <v>138100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>143800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>149800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>120600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>121800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>110600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>90200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>84800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>88600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>74000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>66800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>71100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>69600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>68600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>66400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>72200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>72100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>72000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>72300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>82600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>88000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>90300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>96900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-39300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-55700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-67700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-71400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-104200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-112600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-117800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-122300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-127800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-128000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-123800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-118600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-113300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-108700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-104300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-100000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-98800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-95300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-89700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-88200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-74300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-65600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-57400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>154500</v>
+      </c>
+      <c r="F76" s="3">
         <v>144700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>133000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>137100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>135000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>116600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>106900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>115100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>111800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>110200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>108100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>112400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>116200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>121100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>124500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>126500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>129700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>125300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>128100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>132500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>132600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>143600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>149800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>155800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F81" s="3">
         <v>16400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>12000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>32800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>8400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>5300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>5400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-5200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-5200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-4400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-5000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-3700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-5700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-14000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-8600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-8300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-8400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,37 +6209,39 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F83" s="3">
         <v>2600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>2600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>2300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1700</v>
       </c>
       <c r="I83" s="3">
         <v>1700</v>
       </c>
       <c r="J83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L83" s="3">
         <v>1900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1600</v>
       </c>
       <c r="M83" s="3">
         <v>1600</v>
@@ -5853,13 +6250,13 @@
         <v>1600</v>
       </c>
       <c r="O83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>1200</v>
       </c>
       <c r="R83" s="3">
         <v>1200</v>
@@ -5868,31 +6265,37 @@
         <v>1200</v>
       </c>
       <c r="T83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V83" s="3">
         <v>1000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>1100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>1200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>1600</v>
-      </c>
-      <c r="X83" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>1400</v>
       </c>
       <c r="Z83" s="3">
         <v>1400</v>
       </c>
       <c r="AA83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AC83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F89" s="3">
         <v>16500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>12800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>11100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>23000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>25300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>6000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>7300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>21300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>6500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-18600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>4400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-3500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-8100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-4900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>3000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>3500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-17400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-9300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6821,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-1100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-1600</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-1700</v>
       </c>
       <c r="Z91" s="3">
         <v>-2300</v>
       </c>
       <c r="AA91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7066,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-13000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>2500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>9200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>13500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>6200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-11600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-25200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-11000</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-1000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-1600</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-1700</v>
       </c>
       <c r="Z94" s="3">
         <v>-2300</v>
       </c>
       <c r="AA94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7512,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-9100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-18100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-3800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-15300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-15000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-4000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-3900</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-1200</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>300</v>
-      </c>
       <c r="J101" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>300</v>
       </c>
       <c r="L101" s="3">
+        <v>600</v>
+      </c>
+      <c r="M101" s="3">
+        <v>300</v>
+      </c>
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>600</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F102" s="3">
         <v>4000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-7100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-15000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-6300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>25100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>9800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>3300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>30900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>17600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-12300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-4600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-19900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-25000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-16300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>2900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>2400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-19600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-10800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-7600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LQDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LQDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>LQDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E8" s="3">
         <v>72300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>75200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>69900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>68300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>66700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>70300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>69700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>61800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>55800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>55900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>47700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>52800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>49500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>58800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>56900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>56800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>54100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>52700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>50600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>60100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>61100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>61400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>65500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>72300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>70800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E9" s="3">
         <v>31800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>33700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>28900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>29000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>27800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>30200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>28500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>26400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>22600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>22500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>26600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>24200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>27300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>25300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>24800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>25000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>24200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>19500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>28700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>27600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>29000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>30400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>34600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>32300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E10" s="3">
         <v>40500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>41500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>41000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>39300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>38900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>40100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>41200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>35400</v>
-      </c>
-      <c r="L10" s="3">
-        <v>33200</v>
       </c>
       <c r="M10" s="3">
         <v>33200</v>
       </c>
       <c r="N10" s="3">
+        <v>33200</v>
+      </c>
+      <c r="O10" s="3">
         <v>25200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>26200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>25300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>31500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>31600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>32000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>29100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>28500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>31100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>31400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>33500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>32400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>35100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>37700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>38500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,67 +1242,70 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2400</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1293,12 +1313,12 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
         <v>1000</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
@@ -1306,10 +1326,13 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1320,16 +1343,16 @@
         <v>2800</v>
       </c>
       <c r="F15" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="G15" s="3">
         <v>2600</v>
       </c>
       <c r="H15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I15" s="3">
         <v>2300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1700</v>
       </c>
       <c r="J15" s="3">
         <v>1700</v>
@@ -1338,10 +1361,10 @@
         <v>1700</v>
       </c>
       <c r="L15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M15" s="3">
         <v>1900</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1600</v>
       </c>
       <c r="N15" s="3">
         <v>1600</v>
@@ -1353,10 +1376,10 @@
         <v>1600</v>
       </c>
       <c r="Q15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R15" s="3">
         <v>1500</v>
-      </c>
-      <c r="R15" s="3">
-        <v>1200</v>
       </c>
       <c r="S15" s="3">
         <v>1200</v>
@@ -1368,19 +1391,19 @@
         <v>1200</v>
       </c>
       <c r="V15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W15" s="3">
         <v>1000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>1100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>1200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>1600</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>1400</v>
       </c>
       <c r="AA15" s="3">
         <v>1400</v>
@@ -1389,10 +1412,13 @@
         <v>1400</v>
       </c>
       <c r="AC15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AD15" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E17" s="3">
         <v>67600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>64000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>51200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>55300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>62200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>62000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>61100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>56100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>51100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>50500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>47500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>57300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>54500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>64200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>61400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>61300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>59100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>59300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>53700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>65700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>67600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>75900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>74300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>80700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>79100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E18" s="3">
         <v>4700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>18700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-4500</v>
       </c>
       <c r="S18" s="3">
         <v>-4500</v>
       </c>
       <c r="T18" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="U18" s="3">
         <v>-5000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-6600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-5600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-6500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-14500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-8800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-8400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-8300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,185 +1649,192 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
       </c>
       <c r="O20" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P20" s="3">
         <v>300</v>
       </c>
       <c r="Q20" s="3">
+        <v>300</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
       <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E21" s="3">
         <v>7900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>21200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>15600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3600</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-2900</v>
       </c>
       <c r="S21" s="3">
         <v>-2900</v>
       </c>
       <c r="T21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="U21" s="3">
         <v>-3600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-5300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-4100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-4800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-12900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-7200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-6900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-6800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-22700</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1808,8 +1848,8 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1865,174 +1905,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E23" s="3">
         <v>5100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>11400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>18600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>13000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-6500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-14500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-8600</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>-8300</v>
       </c>
       <c r="AB23" s="3">
         <v>-8300</v>
       </c>
       <c r="AC23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-24500</v>
-      </c>
-      <c r="J24" s="3">
-        <v>400</v>
       </c>
       <c r="K24" s="3">
         <v>400</v>
       </c>
       <c r="L24" s="3">
+        <v>400</v>
+      </c>
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
-      </c>
-      <c r="S24" s="3">
-        <v>300</v>
       </c>
       <c r="T24" s="3">
         <v>300</v>
       </c>
       <c r="U24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>600</v>
-      </c>
-      <c r="W24" s="3">
-        <v>400</v>
       </c>
       <c r="X24" s="3">
         <v>400</v>
       </c>
       <c r="Y24" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-500</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>-100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E26" s="3">
         <v>4000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>32800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-5200</v>
       </c>
       <c r="Q26" s="3">
         <v>-5200</v>
       </c>
       <c r="R26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-4600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-5700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-14000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-8600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-8300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-8400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E27" s="3">
         <v>4000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>32800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-5200</v>
       </c>
       <c r="Q27" s="3">
         <v>-5200</v>
       </c>
       <c r="R27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="S27" s="3">
         <v>-4600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-5700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-14000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-8600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-8300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-8400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2401,8 +2462,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2419,20 +2480,20 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>5500</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>5200</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
       </c>
       <c r="O32" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P32" s="3">
         <v>-300</v>
       </c>
       <c r="Q32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
       <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E33" s="3">
         <v>4000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>32800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-5200</v>
       </c>
       <c r="Q33" s="3">
         <v>-5200</v>
       </c>
       <c r="R33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-4600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-5700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-14000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-8600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-8300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-8400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E35" s="3">
         <v>4000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>32800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-5200</v>
       </c>
       <c r="Q35" s="3">
         <v>-5200</v>
       </c>
       <c r="R35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-4600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-5700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-14000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-8600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-8300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-8400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,102 +3180,106 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>95600</v>
+      </c>
+      <c r="E41" s="3">
         <v>76200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>96100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>88300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>84300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>91300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>106300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>112700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>87600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>77800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>76000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>72700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>41800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>36500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>36400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>33900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>38500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>58400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>83400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>99700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>96800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>94300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>113900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>116100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>126900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>134500</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E42" s="3">
         <v>3700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1800</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -3203,8 +3293,8 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -3216,13 +3306,13 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>10000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>25000</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>30000</v>
       </c>
       <c r="R42" s="3">
         <v>30000</v>
@@ -3234,13 +3324,13 @@
         <v>30000</v>
       </c>
       <c r="U42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="V42" s="3">
         <v>20000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>10000</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>8</v>
@@ -3260,340 +3350,355 @@
       <c r="AC42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E43" s="3">
         <v>8900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7400</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>12000</v>
       </c>
       <c r="Z43" s="3">
         <v>12000</v>
       </c>
       <c r="AA43" s="3">
+        <v>12000</v>
+      </c>
+      <c r="AB43" s="3">
         <v>13400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>11900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E44" s="3">
         <v>16400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>11700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>14400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>13100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>13200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>12500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>13800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8500</v>
-      </c>
-      <c r="P44" s="3">
-        <v>5800</v>
       </c>
       <c r="Q44" s="3">
         <v>5800</v>
       </c>
       <c r="R44" s="3">
+        <v>5800</v>
+      </c>
+      <c r="S44" s="3">
         <v>8900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>13100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>10500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>10100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>12800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>10100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>17100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>20700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>18900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>22500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>26700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E45" s="3">
         <v>8500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8700</v>
-      </c>
-      <c r="G45" s="3">
-        <v>7400</v>
       </c>
       <c r="H45" s="3">
         <v>7400</v>
       </c>
       <c r="I45" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J45" s="3">
         <v>6600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>7900</v>
       </c>
       <c r="L45" s="3">
         <v>7900</v>
       </c>
       <c r="M45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="N45" s="3">
         <v>5600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7000</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>8100</v>
       </c>
       <c r="R45" s="3">
         <v>8100</v>
       </c>
       <c r="S45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="T45" s="3">
         <v>7900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7800</v>
-      </c>
-      <c r="V45" s="3">
-        <v>9100</v>
       </c>
       <c r="W45" s="3">
         <v>9100</v>
       </c>
       <c r="X45" s="3">
+        <v>9100</v>
+      </c>
+      <c r="Y45" s="3">
         <v>7400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>11900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>9900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>12200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>11600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>130600</v>
+      </c>
+      <c r="E46" s="3">
         <v>113600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>129600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>120300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>112200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>120500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>131800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>139500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>114900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>100900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>94600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>94900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>75800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>70500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>89900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>90800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>93500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>93600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>103000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>121200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>125000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>128700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>138900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>154700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>164200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>177100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>184900</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,174 +3780,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E48" s="3">
         <v>30700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>32300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>33400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>32300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>33500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>31100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>31000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>28400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>29400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>30400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>15900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>16500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>16800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>16700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>16100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>15600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>103700</v>
+      </c>
+      <c r="E49" s="3">
         <v>104600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>105100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>106500</v>
-      </c>
-      <c r="G49" s="3">
-        <v>107900</v>
       </c>
       <c r="H49" s="3">
         <v>107900</v>
       </c>
       <c r="I49" s="3">
+        <v>107900</v>
+      </c>
+      <c r="J49" s="3">
         <v>63300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>63800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>64100</v>
-      </c>
-      <c r="L49" s="3">
-        <v>64600</v>
       </c>
       <c r="M49" s="3">
         <v>64600</v>
       </c>
       <c r="N49" s="3">
+        <v>64600</v>
+      </c>
+      <c r="O49" s="3">
         <v>64700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>64900</v>
-      </c>
-      <c r="P49" s="3">
-        <v>65500</v>
       </c>
       <c r="Q49" s="3">
         <v>65500</v>
       </c>
       <c r="R49" s="3">
+        <v>65500</v>
+      </c>
+      <c r="S49" s="3">
         <v>66100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>66400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>66800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>67200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>45700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>46100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>45900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>45800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>46600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>46800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>47100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E52" s="3">
         <v>20200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>24400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>25000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>29300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>13000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>15200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>15300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>15200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>15100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>14600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>13200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>13800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>13700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>13600</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>12900</v>
       </c>
       <c r="AB52" s="3">
         <v>12900</v>
       </c>
       <c r="AC52" s="3">
+        <v>12900</v>
+      </c>
+      <c r="AD52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>283100</v>
+      </c>
+      <c r="E54" s="3">
         <v>269200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>288100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>282800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>276800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>286900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>255600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>238400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>217600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>205300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>196600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>198900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>182100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>179200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>187300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>190700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>193100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>192900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>201800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>197400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>200100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>204800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>215200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>231600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>240000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>252700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>260100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,91 +4448,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>90300</v>
+      </c>
+      <c r="E57" s="3">
         <v>75200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>91200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>92500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>85300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>80200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>74300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>79200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>68500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>52500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>48100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>55300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>40500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>30600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>37000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>40000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>37900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>39100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>45000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>47400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>46100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>39300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>40600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>45600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>45200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>42800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>40400</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4484,174 +4618,183 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E59" s="3">
         <v>30200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>32300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>47300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>44800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>34800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>30800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>30000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>24800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>26200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>24900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>24800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>26600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>31800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>27600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>25900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>23700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>23500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>18200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>19200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>26500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>30200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>31700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>34200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>43100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>45100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E60" s="3">
         <v>105400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>123500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>126900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>132600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>125000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>109200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>110000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>98400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>77300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>74300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>80200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>65300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>57300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>68800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>67500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>63800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>62800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>68500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>65600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>65300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>65700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>70800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>77400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>79400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>85800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>85500</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4733,91 +4876,97 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E62" s="3">
         <v>8800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>11400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>6600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>11800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>10600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>10900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>11100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E66" s="3">
         <v>114200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>133600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>138100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>143800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>149800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>120600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>121800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>110600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>90200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>84800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>88600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>74000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>66800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>71100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>69600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>68600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>66400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>72200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>72100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>72000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>72300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>82600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>88000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>90300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>96900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-27000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-30900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-39300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-55700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-67700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-71400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-104200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-112600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-117800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-122300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-127800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-128000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-123800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-118600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-113300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-108700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-104300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-100000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-98800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-95300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-89700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-88200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-74300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-65600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-57400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>151100</v>
+      </c>
+      <c r="E76" s="3">
         <v>155000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>154500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>144700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>133000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>137100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>135000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>116600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>106900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>115100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>111800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>110200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>108100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>112400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>116200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>121100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>124500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>126500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>129700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>125300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>128100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>132500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>132600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>143600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>149800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>155800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E81" s="3">
         <v>4000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>32800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-5200</v>
       </c>
       <c r="Q81" s="3">
         <v>-5200</v>
       </c>
       <c r="R81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-4600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-5700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-14000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-8600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-8300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-8400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6223,16 +6422,16 @@
         <v>2800</v>
       </c>
       <c r="F83" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="G83" s="3">
         <v>2600</v>
       </c>
       <c r="H83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I83" s="3">
         <v>2300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1700</v>
       </c>
       <c r="J83" s="3">
         <v>1700</v>
@@ -6241,10 +6440,10 @@
         <v>1700</v>
       </c>
       <c r="L83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M83" s="3">
         <v>1900</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1600</v>
       </c>
       <c r="N83" s="3">
         <v>1600</v>
@@ -6256,10 +6455,10 @@
         <v>1600</v>
       </c>
       <c r="Q83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R83" s="3">
         <v>1500</v>
-      </c>
-      <c r="R83" s="3">
-        <v>1200</v>
       </c>
       <c r="S83" s="3">
         <v>1200</v>
@@ -6271,19 +6470,19 @@
         <v>1200</v>
       </c>
       <c r="V83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W83" s="3">
         <v>1000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1600</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>1400</v>
       </c>
       <c r="AA83" s="3">
         <v>1400</v>
@@ -6292,10 +6491,13 @@
         <v>1400</v>
       </c>
       <c r="AC83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AD83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>16500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>11100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>23000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>25300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-8100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-17400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-9300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-5000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-1100</v>
       </c>
       <c r="K91" s="3">
         <v>-1100</v>
       </c>
       <c r="L91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>9200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>13500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>6200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-25200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-11000</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,68 +7761,71 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-18100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3900</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
@@ -7587,11 +7833,11 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
@@ -7599,172 +7845,181 @@
         <v>0</v>
       </c>
       <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>600</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
       <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
         <v>200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-20000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-15000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>25100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>30900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>17600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-19900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-25000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-16300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-19600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-10800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-7600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LQDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LQDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>LQDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>80800</v>
+      </c>
+      <c r="E8" s="3">
         <v>81500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>72300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>75200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>69900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>68300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>66700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>70300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>69700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>61800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>55800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>55900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>47700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>52800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>49500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>58800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>56900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>56800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>54100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>52700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>50600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>60100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>61100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>61400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>65500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>72300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>70800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E9" s="3">
         <v>40400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>31800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>33700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>28900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>29000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>27800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>30200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>28500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>26400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>22700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>22500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>26600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>24200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>27300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>25300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>24800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>25000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>24200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>19500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>28700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>27600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>29000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>30400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>34600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>32300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E10" s="3">
         <v>41100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>40500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>41500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>41000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>39300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>38900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>40100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>41200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>35400</v>
-      </c>
-      <c r="M10" s="3">
-        <v>33200</v>
       </c>
       <c r="N10" s="3">
         <v>33200</v>
       </c>
       <c r="O10" s="3">
+        <v>33200</v>
+      </c>
+      <c r="P10" s="3">
         <v>25200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>26200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>25300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>31500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>31600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>32000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>29100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>28500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>31100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>31400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>33500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>32400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>35100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>37700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>38500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1254,61 +1274,61 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2400</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1316,12 +1336,12 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3">
         <v>1000</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
@@ -1329,15 +1349,18 @@
         <v>0</v>
       </c>
       <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E15" s="3">
         <v>2800</v>
@@ -1346,16 +1369,16 @@
         <v>2800</v>
       </c>
       <c r="G15" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="H15" s="3">
         <v>2600</v>
       </c>
       <c r="I15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J15" s="3">
         <v>2300</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1700</v>
       </c>
       <c r="K15" s="3">
         <v>1700</v>
@@ -1364,10 +1387,10 @@
         <v>1700</v>
       </c>
       <c r="M15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N15" s="3">
         <v>1900</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1600</v>
       </c>
       <c r="O15" s="3">
         <v>1600</v>
@@ -1379,10 +1402,10 @@
         <v>1600</v>
       </c>
       <c r="R15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S15" s="3">
         <v>1500</v>
-      </c>
-      <c r="S15" s="3">
-        <v>1200</v>
       </c>
       <c r="T15" s="3">
         <v>1200</v>
@@ -1394,19 +1417,19 @@
         <v>1200</v>
       </c>
       <c r="W15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X15" s="3">
         <v>1000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>1100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>1200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>1600</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>1400</v>
       </c>
       <c r="AB15" s="3">
         <v>1400</v>
@@ -1415,10 +1438,13 @@
         <v>1400</v>
       </c>
       <c r="AD15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AE15" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E17" s="3">
         <v>76200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>67600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>64000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>51200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>55300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>62200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>62000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>61100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>56100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>51100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>50500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>47500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>57300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>54500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>64200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>61400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>61300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>59100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>59300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>53700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>65700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>67600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>75900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>74300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>80700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>79100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E18" s="3">
         <v>5300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>11200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>18700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-4500</v>
       </c>
       <c r="T18" s="3">
         <v>-4500</v>
       </c>
       <c r="U18" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="V18" s="3">
         <v>-5000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-6600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-6500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-14500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-8800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-8400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-8300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,180 +1683,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>200</v>
       </c>
       <c r="O20" s="3">
         <v>200</v>
       </c>
       <c r="P20" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q20" s="3">
         <v>300</v>
       </c>
       <c r="R20" s="3">
+        <v>300</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>500</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>100</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
       <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E21" s="3">
         <v>8600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>21200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>15600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3600</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-2900</v>
       </c>
       <c r="T21" s="3">
         <v>-2900</v>
       </c>
       <c r="U21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="V21" s="3">
         <v>-3600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-5300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-4800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-12900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-7200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-6900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-6800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-22700</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1833,11 +1873,11 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1851,8 +1891,8 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1908,180 +1948,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>18600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>13000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-6500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-5300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-14500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-8600</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>-8300</v>
       </c>
       <c r="AC23" s="3">
         <v>-8300</v>
       </c>
       <c r="AD23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="AE23" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-24500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>400</v>
       </c>
       <c r="L24" s="3">
         <v>400</v>
       </c>
       <c r="M24" s="3">
+        <v>400</v>
+      </c>
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
-      </c>
-      <c r="T24" s="3">
-        <v>300</v>
       </c>
       <c r="U24" s="3">
         <v>300</v>
       </c>
       <c r="V24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>600</v>
-      </c>
-      <c r="X24" s="3">
-        <v>400</v>
       </c>
       <c r="Y24" s="3">
         <v>400</v>
       </c>
       <c r="Z24" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-500</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
       <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
         <v>-100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>100</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E26" s="3">
         <v>4200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>32800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4200</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-5200</v>
       </c>
       <c r="R26" s="3">
         <v>-5200</v>
       </c>
       <c r="S26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-4600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-6500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-6400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-14000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-8600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-8300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-8400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E27" s="3">
         <v>4200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>32800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4200</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-5200</v>
       </c>
       <c r="R27" s="3">
         <v>-5200</v>
       </c>
       <c r="S27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-4600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-6500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-6400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-14000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-8600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-8300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-8400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2465,8 +2526,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2483,20 +2544,20 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>5500</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>5200</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-200</v>
       </c>
       <c r="O32" s="3">
         <v>-200</v>
       </c>
       <c r="P32" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q32" s="3">
         <v>-300</v>
       </c>
       <c r="R32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-500</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-100</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
       <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E33" s="3">
         <v>4200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>32800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4200</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-5200</v>
       </c>
       <c r="R33" s="3">
         <v>-5200</v>
       </c>
       <c r="S33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-4600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-14000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-8600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-8300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-8400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E35" s="3">
         <v>4200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>32800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4200</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-5200</v>
       </c>
       <c r="R35" s="3">
         <v>-5200</v>
       </c>
       <c r="S35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-4600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-14000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-8600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-8300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-8400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,108 +3267,112 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>98100</v>
+      </c>
+      <c r="E41" s="3">
         <v>95600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>76200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>96100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>88300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>84300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>91300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>106300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>112700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>87600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>77800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>76000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>72700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>41800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>36500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>36400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>33900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>38500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>58400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>83400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>99700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>96800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>94300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>113900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>116100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>126900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>134500</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E42" s="3">
         <v>5600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1800</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -3296,8 +3386,8 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -3309,13 +3399,13 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>10000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>25000</v>
-      </c>
-      <c r="R42" s="3">
-        <v>30000</v>
       </c>
       <c r="S42" s="3">
         <v>30000</v>
@@ -3327,13 +3417,13 @@
         <v>30000</v>
       </c>
       <c r="V42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="W42" s="3">
         <v>20000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>10000</v>
-      </c>
-      <c r="X42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y42" s="3" t="s">
         <v>8</v>
@@ -3353,352 +3443,367 @@
       <c r="AD42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E43" s="3">
         <v>6900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7400</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>12000</v>
       </c>
       <c r="AA43" s="3">
         <v>12000</v>
       </c>
       <c r="AB43" s="3">
+        <v>12000</v>
+      </c>
+      <c r="AC43" s="3">
         <v>13400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>11900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E44" s="3">
         <v>15300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>16400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>11700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>14400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>13100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>13200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>12500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8500</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>5800</v>
       </c>
       <c r="R44" s="3">
         <v>5800</v>
       </c>
       <c r="S44" s="3">
+        <v>5800</v>
+      </c>
+      <c r="T44" s="3">
         <v>8900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>13100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>10500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>10100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>12800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>10100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>17100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>20700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>18900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>22500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>26700</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E45" s="3">
         <v>7200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>7400</v>
       </c>
       <c r="I45" s="3">
         <v>7400</v>
       </c>
       <c r="J45" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K45" s="3">
         <v>6600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>7900</v>
       </c>
       <c r="M45" s="3">
         <v>7900</v>
       </c>
       <c r="N45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="O45" s="3">
         <v>5600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7000</v>
-      </c>
-      <c r="R45" s="3">
-        <v>8100</v>
       </c>
       <c r="S45" s="3">
         <v>8100</v>
       </c>
       <c r="T45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="U45" s="3">
         <v>7900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7800</v>
-      </c>
-      <c r="W45" s="3">
-        <v>9100</v>
       </c>
       <c r="X45" s="3">
         <v>9100</v>
       </c>
       <c r="Y45" s="3">
+        <v>9100</v>
+      </c>
+      <c r="Z45" s="3">
         <v>7400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>11900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>9900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>12200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>11600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>134900</v>
+      </c>
+      <c r="E46" s="3">
         <v>130600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>113600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>129600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>120300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>112200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>120500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>131800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>139500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>114900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>100900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>94600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>94900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>75800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>70500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>89900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>90800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>93500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>93600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>103000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>121200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>125000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>128700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>138900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>154700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>164200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>177100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>184900</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,180 +3888,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E48" s="3">
         <v>29700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>30700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>32300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>33400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>32300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>33500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>31100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>31000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>28400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>27800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>30400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>16000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>15900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>16500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>16800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>16700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>16100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>15600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>102900</v>
+      </c>
+      <c r="E49" s="3">
         <v>103700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>104600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>105100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>106500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>107900</v>
       </c>
       <c r="I49" s="3">
         <v>107900</v>
       </c>
       <c r="J49" s="3">
+        <v>107900</v>
+      </c>
+      <c r="K49" s="3">
         <v>63300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>63800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>64100</v>
-      </c>
-      <c r="M49" s="3">
-        <v>64600</v>
       </c>
       <c r="N49" s="3">
         <v>64600</v>
       </c>
       <c r="O49" s="3">
+        <v>64600</v>
+      </c>
+      <c r="P49" s="3">
         <v>64700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>64900</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>65500</v>
       </c>
       <c r="R49" s="3">
         <v>65500</v>
       </c>
       <c r="S49" s="3">
+        <v>65500</v>
+      </c>
+      <c r="T49" s="3">
         <v>66100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>66400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>66800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>67200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>45700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>46100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>45900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>45800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>46600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>46800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>47100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E52" s="3">
         <v>19100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>22600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>24400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>25000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>29300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>13000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>15200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>15300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>15200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>15100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>14600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>13200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>13800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>13700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>13600</v>
-      </c>
-      <c r="AB52" s="3">
-        <v>12900</v>
       </c>
       <c r="AC52" s="3">
         <v>12900</v>
       </c>
       <c r="AD52" s="3">
+        <v>12900</v>
+      </c>
+      <c r="AE52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>283000</v>
+      </c>
+      <c r="E54" s="3">
         <v>283100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>269200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>288100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>282800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>276800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>286900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>255600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>238400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>217600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>205300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>196600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>198900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>182100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>179200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>187300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>190700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>193100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>192900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>201800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>197400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>200100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>204800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>215200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>231600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>240000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>252700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>260100</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,94 +4579,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E57" s="3">
         <v>90300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>75200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>91200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>92500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>85300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>80200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>74300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>79200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>68500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>52500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>48100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>55300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>40500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>30600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>37000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>40000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>37900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>39100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>45000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>47400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>46100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>39300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>40600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>45600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>45200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>42800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>40400</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4621,180 +4755,189 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E59" s="3">
         <v>33800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>30200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>32300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>34400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>47300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>44800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>34800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>30800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>30000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>24800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>26200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>24900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>24800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>26600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>31800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>27600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>25900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>23700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>23500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>18200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>19200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>26500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>30200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>31700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>34200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>43100</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>45100</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>120200</v>
+      </c>
+      <c r="E60" s="3">
         <v>124000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>105400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>123500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>126900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>132600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>125000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>109200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>110000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>98400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>77300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>74300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>80200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>65300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>57300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>68800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>67500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>63800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>62800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>68500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>65600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>65300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>65700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>70800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>77400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>79400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>85800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>85500</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,94 +5022,100 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E62" s="3">
         <v>8000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>6700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>6600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>11800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>10600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>10900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>11100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>127200</v>
+      </c>
+      <c r="E66" s="3">
         <v>132000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>114200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>133600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>138100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>143800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>149800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>120600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>121800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>110600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>90200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>84800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>88600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>74000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>66800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>71100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>69600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>68600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>66400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>72200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>72100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>72000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>72300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>82600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>88000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>90300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>96900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-27000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-30900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-39300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-55700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-67700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-71400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-104200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-112600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-117800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-122300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-127800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-128000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-123800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-118600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-113300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-108700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-104300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-100000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-98800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-95300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-89700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-88200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-74300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-65600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-57400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>155800</v>
+      </c>
+      <c r="E76" s="3">
         <v>151100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>155000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>154500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>144700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>133000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>137100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>135000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>116600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>106900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>115100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>111800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>110200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>108100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>112400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>116200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>121100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>124500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>126500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>129700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>125300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>128100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>132500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>132600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>143600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>149800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>155800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E81" s="3">
         <v>4200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>32800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4200</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-5200</v>
       </c>
       <c r="R81" s="3">
         <v>-5200</v>
       </c>
       <c r="S81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-4600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-14000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-8600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-8300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-8400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,13 +6608,14 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E83" s="3">
         <v>2800</v>
@@ -6425,16 +6624,16 @@
         <v>2800</v>
       </c>
       <c r="G83" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="H83" s="3">
         <v>2600</v>
       </c>
       <c r="I83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J83" s="3">
         <v>2300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1700</v>
       </c>
       <c r="K83" s="3">
         <v>1700</v>
@@ -6443,10 +6642,10 @@
         <v>1700</v>
       </c>
       <c r="M83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N83" s="3">
         <v>1900</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1600</v>
       </c>
       <c r="O83" s="3">
         <v>1600</v>
@@ -6458,10 +6657,10 @@
         <v>1600</v>
       </c>
       <c r="R83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S83" s="3">
         <v>1500</v>
-      </c>
-      <c r="S83" s="3">
-        <v>1200</v>
       </c>
       <c r="T83" s="3">
         <v>1200</v>
@@ -6473,19 +6672,19 @@
         <v>1200</v>
       </c>
       <c r="W83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X83" s="3">
         <v>1000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1600</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>1400</v>
       </c>
       <c r="AB83" s="3">
         <v>1400</v>
@@ -6494,10 +6693,13 @@
         <v>1400</v>
       </c>
       <c r="AD83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AE83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E89" s="3">
         <v>33000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>23000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>25300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>21300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-18600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-8100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-17400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-9300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-5000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-1100</v>
       </c>
       <c r="L91" s="3">
         <v>-1100</v>
       </c>
       <c r="M91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-2300</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>9200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>13500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>6200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-25200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-11000</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-2300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,71 +8007,74 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-18100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-15300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3900</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
@@ -7836,11 +8082,11 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
         <v>0</v>
       </c>
@@ -7848,178 +8094,187 @@
         <v>0</v>
       </c>
       <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>600</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
       <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
         <v>200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E102" s="3">
         <v>19400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-20000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-15000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>25100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>30900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>17600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-12300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-19900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-25000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-16300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-19600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-10800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-7600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>4600</v>
       </c>
     </row>
